--- a/Securebank_TestCase_Writing.xlsx
+++ b/Securebank_TestCase_Writing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="477">
   <si>
     <t>Please Click Here to show securebank testplan full PDF.</t>
   </si>
@@ -83,13 +83,13 @@
     <t>Validate the working of "Sign up" feature</t>
   </si>
   <si>
-    <t>p0</t>
-  </si>
-  <si>
     <t>TS_003</t>
   </si>
   <si>
     <t>Validate the "Logout" functionality</t>
+  </si>
+  <si>
+    <t>p0</t>
   </si>
   <si>
     <t>TS_004</t>
@@ -1934,9 +1934,6 @@
     <t xml:space="preserve">   Project Name   </t>
   </si>
   <si>
-    <t>Startech bd LTD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Module Name   </t>
   </si>
   <si>
@@ -1952,16 +1949,13 @@
     <t xml:space="preserve">Feature Name   </t>
   </si>
   <si>
-    <t>Register Account &amp;  Account Login.</t>
+    <t>Register Account ,Account Login,Transaction Functionality</t>
   </si>
   <si>
     <t>Test Case Version</t>
   </si>
   <si>
     <t>Written By</t>
-  </si>
-  <si>
-    <t>Md.Tashfiquzzaman</t>
   </si>
   <si>
     <t>Executed By</t>
@@ -2295,7 +2289,7 @@
     <t>Expected: Should not allow registration with invalid email address.</t>
   </si>
   <si>
-    <t>Responsible QA: Tashfiquzzman</t>
+    <t xml:space="preserve">Responsible QA: </t>
   </si>
   <si>
     <t># SL 02</t>
@@ -2373,7 +2367,7 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">  Tashfiquzzaman</t>
+      <t xml:space="preserve">  Adrita Alam</t>
     </r>
   </si>
   <si>
@@ -2437,6 +2431,9 @@
   </si>
   <si>
     <t>Screenshot: First and last names should not start with a special characte</t>
+  </si>
+  <si>
+    <t>Responsible QA: Adrita Alam</t>
   </si>
   <si>
     <t># SL 04</t>
@@ -2504,7 +2501,7 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">  Tashfiquzzaman</t>
+      <t xml:space="preserve">  Adrita Alam</t>
     </r>
   </si>
   <si>
@@ -2573,7 +2570,7 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">  Tashfiquzzaman</t>
+      <t xml:space="preserve">  Adrita Alam</t>
     </r>
   </si>
 </sst>
@@ -3974,7 +3971,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="538">
+  <cellXfs count="539">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5201,19 +5198,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="48" fillId="27" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="49" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="50" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="51" fillId="26" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="48" fillId="27" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="24" fillId="28" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="52" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="53" fillId="27" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="54" fillId="27" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -5399,7 +5399,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="53" fillId="37" fontId="59" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="37" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -5418,7 +5418,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="75" fillId="37" fontId="59" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="34" fillId="22" fontId="59" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -5742,7 +5742,7 @@
     <xdr:ext cx="5067300" cy="4476750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5775,7 +5775,7 @@
     <xdr:ext cx="11506200" cy="6543675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8339,7 +8339,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="32">
         <v>30.0</v>
@@ -8351,14 +8351,14 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>19</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="6"/>
@@ -41079,7 +41079,7 @@
         <v>362</v>
       </c>
       <c r="C5" s="435" t="s">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="D5" s="436"/>
       <c r="E5" s="436"/>
@@ -41088,287 +41088,287 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="438" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="439" t="s">
         <v>364</v>
-      </c>
-      <c r="C6" s="435" t="s">
-        <v>365</v>
       </c>
       <c r="D6" s="436"/>
       <c r="E6" s="436"/>
       <c r="F6" s="436"/>
       <c r="G6" s="437"/>
-      <c r="I6" s="439" t="s">
+      <c r="I6" s="440" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="440" t="s">
         <v>366</v>
       </c>
-      <c r="J6" s="439" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="441"/>
+      <c r="B7" s="438" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="440"/>
-      <c r="B7" s="438" t="s">
+      <c r="C7" s="442" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="441" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="442"/>
-      <c r="E7" s="442"/>
-      <c r="F7" s="442"/>
-      <c r="G7" s="443"/>
-      <c r="I7" s="439"/>
-      <c r="J7" s="439"/>
-      <c r="L7" s="444"/>
+      <c r="D7" s="443"/>
+      <c r="E7" s="443"/>
+      <c r="F7" s="443"/>
+      <c r="G7" s="444"/>
+      <c r="I7" s="440"/>
+      <c r="J7" s="440"/>
+      <c r="L7" s="445"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="434" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="435">
+        <v>369</v>
+      </c>
+      <c r="C8" s="439">
         <v>1.0</v>
       </c>
       <c r="D8" s="436"/>
       <c r="E8" s="436"/>
       <c r="F8" s="436"/>
       <c r="G8" s="437"/>
-      <c r="I8" s="445">
+      <c r="I8" s="446">
         <f>C16</f>
         <v>64</v>
       </c>
-      <c r="J8" s="445" t="s">
+      <c r="J8" s="446" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="446"/>
-      <c r="L8" s="447"/>
+      <c r="K8" s="447"/>
+      <c r="L8" s="448"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="434" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C9" s="435" t="s">
-        <v>372</v>
+        <v>6</v>
       </c>
       <c r="D9" s="436"/>
       <c r="E9" s="436"/>
       <c r="F9" s="436"/>
       <c r="G9" s="437"/>
-      <c r="I9" s="445">
+      <c r="I9" s="446">
         <f>D16</f>
         <v>16</v>
       </c>
-      <c r="J9" s="445" t="s">
+      <c r="J9" s="446" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="446"/>
-      <c r="L9" s="448"/>
+      <c r="K9" s="447"/>
+      <c r="L9" s="449"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="434" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C10" s="435" t="s">
-        <v>372</v>
+        <v>6</v>
       </c>
       <c r="D10" s="436"/>
       <c r="E10" s="436"/>
       <c r="F10" s="436"/>
       <c r="G10" s="437"/>
-      <c r="I10" s="445">
+      <c r="I10" s="446">
         <f>E16</f>
         <v>0</v>
       </c>
-      <c r="J10" s="445" t="s">
+      <c r="J10" s="446" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="450" t="s">
+        <v>373</v>
+      </c>
+      <c r="M10" s="451" t="s">
         <v>374</v>
       </c>
-      <c r="L10" s="449" t="s">
+      <c r="N10" s="452" t="s">
         <v>375</v>
       </c>
-      <c r="M10" s="450" t="s">
-        <v>376</v>
-      </c>
-      <c r="N10" s="451" t="s">
-        <v>377</v>
-      </c>
-      <c r="O10" s="447"/>
-      <c r="P10" s="450"/>
+      <c r="O10" s="448"/>
+      <c r="P10" s="451"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="434" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" s="435" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="439" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="436"/>
       <c r="E11" s="436"/>
       <c r="F11" s="436"/>
       <c r="G11" s="437"/>
-      <c r="I11" s="445">
+      <c r="I11" s="446">
         <f>F16</f>
         <v>0</v>
       </c>
-      <c r="J11" s="445" t="s">
+      <c r="J11" s="446" t="s">
+        <v>377</v>
+      </c>
+      <c r="L11" s="448"/>
+      <c r="M11" s="448"/>
+      <c r="N11" s="448"/>
+      <c r="O11" s="448"/>
+      <c r="P11" s="448"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="453" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="454"/>
+      <c r="D12" s="454"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="454"/>
+      <c r="G12" s="455"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="456"/>
+      <c r="C13" s="457"/>
+      <c r="D13" s="457"/>
+      <c r="E13" s="457"/>
+      <c r="F13" s="457"/>
+      <c r="G13" s="239"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="458" t="s">
         <v>379</v>
       </c>
-      <c r="L11" s="447"/>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="447"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="452" t="s">
+      <c r="C14" s="459" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="459" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="459" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="459" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="453"/>
-      <c r="D12" s="453"/>
-      <c r="E12" s="453"/>
-      <c r="F12" s="453"/>
-      <c r="G12" s="454"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="455"/>
-      <c r="C13" s="456"/>
-      <c r="D13" s="456"/>
-      <c r="E13" s="456"/>
-      <c r="F13" s="456"/>
-      <c r="G13" s="239"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="457" t="s">
+      <c r="G14" s="460" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="458" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="458" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="458" t="s">
-        <v>374</v>
-      </c>
-      <c r="F14" s="458" t="s">
-        <v>382</v>
-      </c>
-      <c r="G14" s="459" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="460"/>
-      <c r="M14" s="460"/>
-      <c r="N14" s="460"/>
-      <c r="O14" s="460"/>
-      <c r="P14" s="460"/>
-      <c r="Q14" s="460"/>
-      <c r="R14" s="460"/>
+      <c r="L14" s="461"/>
+      <c r="M14" s="461"/>
+      <c r="N14" s="461"/>
+      <c r="O14" s="461"/>
+      <c r="P14" s="461"/>
+      <c r="Q14" s="461"/>
+      <c r="R14" s="461"/>
     </row>
     <row r="15" ht="48.0" customHeight="1">
-      <c r="A15" s="461"/>
-      <c r="B15" s="462"/>
-      <c r="C15" s="463">
+      <c r="A15" s="462"/>
+      <c r="B15" s="463"/>
+      <c r="C15" s="464">
         <f>TestCase!M2</f>
         <v>64</v>
       </c>
-      <c r="D15" s="464">
+      <c r="D15" s="465">
         <f>TestCase!M3</f>
         <v>16</v>
       </c>
-      <c r="E15" s="465">
+      <c r="E15" s="466">
         <f>TestCase!M4</f>
         <v>0</v>
       </c>
-      <c r="F15" s="466">
+      <c r="F15" s="467">
         <f>TestCase!M5</f>
         <v>0</v>
       </c>
-      <c r="G15" s="467">
+      <c r="G15" s="468">
         <f>TestCase!M6</f>
         <v>80</v>
       </c>
-      <c r="H15" s="461"/>
-      <c r="I15" s="461"/>
-      <c r="J15" s="461"/>
-      <c r="K15" s="461"/>
-      <c r="L15" s="468"/>
-      <c r="M15" s="461"/>
-      <c r="N15" s="461"/>
-      <c r="O15" s="461"/>
-      <c r="P15" s="461"/>
-      <c r="Q15" s="461"/>
-      <c r="R15" s="461"/>
-      <c r="S15" s="461"/>
-      <c r="T15" s="461"/>
-      <c r="U15" s="461"/>
-      <c r="V15" s="461"/>
-      <c r="W15" s="461"/>
-      <c r="X15" s="461"/>
-      <c r="Y15" s="461"/>
-      <c r="Z15" s="461"/>
+      <c r="H15" s="462"/>
+      <c r="I15" s="462"/>
+      <c r="J15" s="462"/>
+      <c r="K15" s="462"/>
+      <c r="L15" s="469"/>
+      <c r="M15" s="462"/>
+      <c r="N15" s="462"/>
+      <c r="O15" s="462"/>
+      <c r="P15" s="462"/>
+      <c r="Q15" s="462"/>
+      <c r="R15" s="462"/>
+      <c r="S15" s="462"/>
+      <c r="T15" s="462"/>
+      <c r="U15" s="462"/>
+      <c r="V15" s="462"/>
+      <c r="W15" s="462"/>
+      <c r="X15" s="462"/>
+      <c r="Y15" s="462"/>
+      <c r="Z15" s="462"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="469" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="470">
+      <c r="B16" s="470" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="471">
         <f t="shared" ref="C16:G16" si="1">SUM(C15)</f>
         <v>64</v>
       </c>
-      <c r="D16" s="471">
+      <c r="D16" s="472">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E16" s="470">
+      <c r="E16" s="471">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="470">
+      <c r="F16" s="471">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="472">
+      <c r="G16" s="473">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="L16" s="433"/>
-      <c r="M16" s="473"/>
-      <c r="N16" s="473"/>
-      <c r="O16" s="473"/>
-      <c r="P16" s="473"/>
-      <c r="Q16" s="473"/>
-      <c r="R16" s="473"/>
+      <c r="M16" s="474"/>
+      <c r="N16" s="474"/>
+      <c r="O16" s="474"/>
+      <c r="P16" s="474"/>
+      <c r="Q16" s="474"/>
+      <c r="R16" s="474"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="474"/>
-      <c r="C17" s="475"/>
-      <c r="D17" s="475"/>
-      <c r="E17" s="475"/>
-      <c r="F17" s="475"/>
-      <c r="G17" s="476"/>
+      <c r="B17" s="475"/>
+      <c r="C17" s="476"/>
+      <c r="D17" s="476"/>
+      <c r="E17" s="476"/>
+      <c r="F17" s="476"/>
+      <c r="G17" s="477"/>
       <c r="L17" s="433"/>
-      <c r="M17" s="473"/>
-      <c r="N17" s="473"/>
-      <c r="O17" s="473"/>
-      <c r="P17" s="473"/>
-      <c r="Q17" s="473"/>
-      <c r="R17" s="473"/>
+      <c r="M17" s="474"/>
+      <c r="N17" s="474"/>
+      <c r="O17" s="474"/>
+      <c r="P17" s="474"/>
+      <c r="Q17" s="474"/>
+      <c r="R17" s="474"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="477"/>
-      <c r="C18" s="477"/>
-      <c r="D18" s="477"/>
-      <c r="E18" s="477"/>
-      <c r="F18" s="477"/>
-      <c r="G18" s="477"/>
-      <c r="L18" s="460"/>
-      <c r="M18" s="460"/>
-      <c r="N18" s="460"/>
-      <c r="O18" s="460"/>
-      <c r="P18" s="460"/>
-      <c r="Q18" s="460"/>
-      <c r="R18" s="460"/>
+      <c r="B18" s="478"/>
+      <c r="C18" s="478"/>
+      <c r="D18" s="478"/>
+      <c r="E18" s="478"/>
+      <c r="F18" s="478"/>
+      <c r="G18" s="478"/>
+      <c r="L18" s="461"/>
+      <c r="M18" s="461"/>
+      <c r="N18" s="461"/>
+      <c r="O18" s="461"/>
+      <c r="P18" s="461"/>
+      <c r="Q18" s="461"/>
+      <c r="R18" s="461"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="478" t="s">
-        <v>385</v>
+      <c r="B19" s="479" t="s">
+        <v>383</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -41377,316 +41377,316 @@
       <c r="G19" s="50"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="479" t="s">
-        <v>386</v>
+      <c r="B20" s="480" t="s">
+        <v>384</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="480"/>
-      <c r="F20" s="480" t="s">
+      <c r="E20" s="481"/>
+      <c r="F20" s="481" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="481" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="482" t="s">
         <v>387</v>
-      </c>
-      <c r="G20" s="480" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="481" t="s">
-        <v>389</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="50"/>
-      <c r="E21" s="482"/>
-      <c r="F21" s="482" t="s">
-        <v>390</v>
-      </c>
-      <c r="G21" s="482" t="s">
-        <v>390</v>
+      <c r="E21" s="483"/>
+      <c r="F21" s="483" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" s="483" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="481" t="s">
-        <v>391</v>
+      <c r="B22" s="482" t="s">
+        <v>389</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="50"/>
-      <c r="E22" s="482"/>
-      <c r="F22" s="482" t="s">
-        <v>390</v>
-      </c>
-      <c r="G22" s="482" t="s">
-        <v>390</v>
+      <c r="E22" s="483"/>
+      <c r="F22" s="483" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" s="483" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="483"/>
-      <c r="C24" s="484" t="s">
-        <v>392</v>
-      </c>
-      <c r="D24" s="485" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" s="486"/>
-      <c r="F24" s="486"/>
-      <c r="G24" s="487"/>
+      <c r="B24" s="484"/>
+      <c r="C24" s="485" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="486" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" s="487"/>
+      <c r="F24" s="487"/>
+      <c r="G24" s="488"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="160"/>
       <c r="C25" s="160"/>
-      <c r="D25" s="488"/>
+      <c r="D25" s="489"/>
       <c r="G25" s="116"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="160"/>
       <c r="C26" s="160"/>
-      <c r="D26" s="488"/>
+      <c r="D26" s="489"/>
       <c r="G26" s="116"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="195"/>
       <c r="C27" s="195"/>
-      <c r="D27" s="455"/>
-      <c r="E27" s="456"/>
-      <c r="F27" s="456"/>
+      <c r="D27" s="456"/>
+      <c r="E27" s="457"/>
+      <c r="F27" s="457"/>
       <c r="G27" s="239"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="489" t="s">
-        <v>394</v>
-      </c>
-      <c r="C28" s="490" t="s">
+      <c r="B28" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="491" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="491" t="s">
-        <v>395</v>
-      </c>
-      <c r="E28" s="486"/>
-      <c r="F28" s="486"/>
-      <c r="G28" s="487"/>
+      <c r="D28" s="492" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="487"/>
+      <c r="F28" s="487"/>
+      <c r="G28" s="488"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="160"/>
       <c r="C29" s="160"/>
-      <c r="D29" s="488"/>
+      <c r="D29" s="489"/>
       <c r="G29" s="116"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="160"/>
       <c r="C30" s="160"/>
-      <c r="D30" s="488"/>
+      <c r="D30" s="489"/>
       <c r="G30" s="116"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="195"/>
       <c r="C31" s="195"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="456"/>
-      <c r="F31" s="456"/>
+      <c r="D31" s="456"/>
+      <c r="E31" s="457"/>
+      <c r="F31" s="457"/>
       <c r="G31" s="239"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="489" t="s">
+      <c r="B32" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="491" t="s">
         <v>394</v>
       </c>
-      <c r="C32" s="490" t="s">
-        <v>396</v>
-      </c>
-      <c r="D32" s="491" t="s">
-        <v>397</v>
-      </c>
-      <c r="E32" s="486"/>
-      <c r="F32" s="486"/>
-      <c r="G32" s="487"/>
+      <c r="D32" s="492" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="487"/>
+      <c r="F32" s="487"/>
+      <c r="G32" s="488"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="160"/>
       <c r="C33" s="160"/>
-      <c r="D33" s="488"/>
+      <c r="D33" s="489"/>
       <c r="G33" s="116"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="160"/>
       <c r="C34" s="160"/>
-      <c r="D34" s="488"/>
+      <c r="D34" s="489"/>
       <c r="G34" s="116"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="195"/>
       <c r="C35" s="195"/>
-      <c r="D35" s="455"/>
-      <c r="E35" s="456"/>
-      <c r="F35" s="456"/>
+      <c r="D35" s="456"/>
+      <c r="E35" s="457"/>
+      <c r="F35" s="457"/>
       <c r="G35" s="239"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="489" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" s="490" t="s">
-        <v>398</v>
-      </c>
-      <c r="D36" s="491" t="s">
-        <v>399</v>
-      </c>
-      <c r="E36" s="486"/>
-      <c r="F36" s="486"/>
-      <c r="G36" s="487"/>
+      <c r="B36" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="491" t="s">
+        <v>396</v>
+      </c>
+      <c r="D36" s="492" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="487"/>
+      <c r="F36" s="487"/>
+      <c r="G36" s="488"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="160"/>
       <c r="C37" s="160"/>
-      <c r="D37" s="488"/>
+      <c r="D37" s="489"/>
       <c r="G37" s="116"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="160"/>
       <c r="C38" s="160"/>
-      <c r="D38" s="488"/>
+      <c r="D38" s="489"/>
       <c r="G38" s="116"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="195"/>
       <c r="C39" s="195"/>
-      <c r="D39" s="455"/>
-      <c r="E39" s="456"/>
-      <c r="F39" s="456"/>
+      <c r="D39" s="456"/>
+      <c r="E39" s="457"/>
+      <c r="F39" s="457"/>
       <c r="G39" s="239"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="489" t="s">
-        <v>394</v>
-      </c>
-      <c r="C40" s="490" t="s">
-        <v>400</v>
-      </c>
-      <c r="D40" s="491" t="s">
-        <v>401</v>
-      </c>
-      <c r="E40" s="486"/>
-      <c r="F40" s="486"/>
-      <c r="G40" s="487"/>
+      <c r="B40" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" s="491" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="492" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40" s="487"/>
+      <c r="F40" s="487"/>
+      <c r="G40" s="488"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="160"/>
       <c r="C41" s="160"/>
-      <c r="D41" s="488"/>
+      <c r="D41" s="489"/>
       <c r="G41" s="116"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="160"/>
       <c r="C42" s="160"/>
-      <c r="D42" s="488"/>
+      <c r="D42" s="489"/>
       <c r="G42" s="116"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="195"/>
       <c r="C43" s="195"/>
-      <c r="D43" s="455"/>
-      <c r="E43" s="456"/>
-      <c r="F43" s="456"/>
+      <c r="D43" s="456"/>
+      <c r="E43" s="457"/>
+      <c r="F43" s="457"/>
       <c r="G43" s="239"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="489" t="s">
-        <v>394</v>
-      </c>
-      <c r="C44" s="492" t="s">
-        <v>402</v>
-      </c>
-      <c r="D44" s="491" t="s">
-        <v>403</v>
-      </c>
-      <c r="E44" s="486"/>
-      <c r="F44" s="486"/>
-      <c r="G44" s="487"/>
+      <c r="B44" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="493" t="s">
+        <v>400</v>
+      </c>
+      <c r="D44" s="492" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" s="487"/>
+      <c r="F44" s="487"/>
+      <c r="G44" s="488"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="160"/>
       <c r="C45" s="160"/>
-      <c r="D45" s="488"/>
+      <c r="D45" s="489"/>
       <c r="G45" s="116"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="160"/>
       <c r="C46" s="160"/>
-      <c r="D46" s="488"/>
+      <c r="D46" s="489"/>
       <c r="G46" s="116"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="195"/>
       <c r="C47" s="195"/>
-      <c r="D47" s="455"/>
-      <c r="E47" s="456"/>
-      <c r="F47" s="456"/>
+      <c r="D47" s="456"/>
+      <c r="E47" s="457"/>
+      <c r="F47" s="457"/>
       <c r="G47" s="239"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="489" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" s="492" t="s">
-        <v>404</v>
-      </c>
-      <c r="D48" s="491" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="486"/>
-      <c r="F48" s="486"/>
-      <c r="G48" s="487"/>
+      <c r="B48" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C48" s="493" t="s">
+        <v>402</v>
+      </c>
+      <c r="D48" s="492" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" s="487"/>
+      <c r="F48" s="487"/>
+      <c r="G48" s="488"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="160"/>
       <c r="C49" s="160"/>
-      <c r="D49" s="488"/>
+      <c r="D49" s="489"/>
       <c r="G49" s="116"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="160"/>
       <c r="C50" s="160"/>
-      <c r="D50" s="488"/>
+      <c r="D50" s="489"/>
       <c r="G50" s="116"/>
     </row>
     <row r="51" ht="33.75" customHeight="1">
       <c r="B51" s="195"/>
       <c r="C51" s="195"/>
-      <c r="D51" s="455"/>
-      <c r="E51" s="456"/>
-      <c r="F51" s="456"/>
+      <c r="D51" s="456"/>
+      <c r="E51" s="457"/>
+      <c r="F51" s="457"/>
       <c r="G51" s="239"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="489" t="s">
-        <v>394</v>
-      </c>
-      <c r="C52" s="492" t="s">
-        <v>406</v>
-      </c>
-      <c r="D52" s="491" t="s">
-        <v>407</v>
-      </c>
-      <c r="E52" s="486"/>
-      <c r="F52" s="486"/>
-      <c r="G52" s="487"/>
+      <c r="B52" s="490" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" s="493" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="492" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="487"/>
+      <c r="F52" s="487"/>
+      <c r="G52" s="488"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="160"/>
       <c r="C53" s="160"/>
-      <c r="D53" s="488"/>
+      <c r="D53" s="489"/>
       <c r="G53" s="116"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="160"/>
       <c r="C54" s="160"/>
-      <c r="D54" s="488"/>
+      <c r="D54" s="489"/>
       <c r="G54" s="116"/>
     </row>
     <row r="55" ht="39.0" customHeight="1">
       <c r="B55" s="195"/>
       <c r="C55" s="195"/>
-      <c r="D55" s="455"/>
-      <c r="E55" s="456"/>
-      <c r="F55" s="456"/>
+      <c r="D55" s="456"/>
+      <c r="E55" s="457"/>
+      <c r="F55" s="457"/>
       <c r="G55" s="239"/>
     </row>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -42706,58 +42706,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="E1" s="493"/>
+      <c r="E1" s="494"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="E2" s="493"/>
+      <c r="E2" s="494"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="B3" s="494" t="s">
+      <c r="B3" s="495" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="487"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="496"/>
+    </row>
+    <row r="4" ht="45.75" customHeight="1">
+      <c r="B4" s="456"/>
+      <c r="C4" s="457"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="496"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="496"/>
+    </row>
+    <row r="5" ht="44.25" customHeight="1">
+      <c r="B5" s="497" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="498" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="498" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="498" t="s">
         <v>408</v>
-      </c>
-      <c r="C3" s="486"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-    </row>
-    <row r="4" ht="45.75" customHeight="1">
-      <c r="B4" s="455"/>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="495"/>
-      <c r="G4" s="495"/>
-      <c r="H4" s="495"/>
-    </row>
-    <row r="5" ht="44.25" customHeight="1">
-      <c r="B5" s="496" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="497" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" s="497" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="497" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="6" ht="27.75" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="498">
+      <c r="B6" s="499">
         <v>1.0</v>
       </c>
-      <c r="C6" s="499" t="s">
+      <c r="C6" s="500" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="501" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="499" t="s">
         <v>411</v>
-      </c>
-      <c r="D6" s="500" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="498" t="s">
-        <v>413</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -42783,17 +42783,17 @@
     </row>
     <row r="7" ht="29.25" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="498">
+      <c r="B7" s="499">
         <v>2.0</v>
       </c>
-      <c r="C7" s="501" t="s">
+      <c r="C7" s="502" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="503" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="499" t="s">
         <v>414</v>
-      </c>
-      <c r="D7" s="502" t="s">
-        <v>415</v>
-      </c>
-      <c r="E7" s="498" t="s">
-        <v>416</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -42818,3313 +42818,3313 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="27.75" customHeight="1">
-      <c r="A8" s="503"/>
-      <c r="B8" s="498">
+      <c r="A8" s="504"/>
+      <c r="B8" s="499">
         <v>3.0</v>
       </c>
-      <c r="C8" s="501" t="s">
+      <c r="C8" s="502" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="503" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="499" t="s">
         <v>417</v>
       </c>
-      <c r="D8" s="502" t="s">
+      <c r="F8" s="504"/>
+      <c r="G8" s="504"/>
+      <c r="H8" s="504"/>
+      <c r="I8" s="504"/>
+      <c r="J8" s="504"/>
+      <c r="K8" s="504"/>
+      <c r="L8" s="504"/>
+      <c r="M8" s="504"/>
+      <c r="N8" s="504"/>
+      <c r="O8" s="504"/>
+      <c r="P8" s="504"/>
+      <c r="Q8" s="504"/>
+      <c r="R8" s="504"/>
+      <c r="S8" s="504"/>
+      <c r="T8" s="504"/>
+      <c r="U8" s="504"/>
+      <c r="V8" s="504"/>
+      <c r="W8" s="504"/>
+      <c r="X8" s="504"/>
+      <c r="Y8" s="504"/>
+      <c r="Z8" s="504"/>
+    </row>
+    <row r="9" ht="29.25" customHeight="1">
+      <c r="A9" s="504"/>
+      <c r="B9" s="499">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="502" t="s">
         <v>418</v>
       </c>
-      <c r="E8" s="498" t="s">
+      <c r="D9" s="503" t="s">
         <v>419</v>
       </c>
-      <c r="F8" s="503"/>
-      <c r="G8" s="503"/>
-      <c r="H8" s="503"/>
-      <c r="I8" s="503"/>
-      <c r="J8" s="503"/>
-      <c r="K8" s="503"/>
-      <c r="L8" s="503"/>
-      <c r="M8" s="503"/>
-      <c r="N8" s="503"/>
-      <c r="O8" s="503"/>
-      <c r="P8" s="503"/>
-      <c r="Q8" s="503"/>
-      <c r="R8" s="503"/>
-      <c r="S8" s="503"/>
-      <c r="T8" s="503"/>
-      <c r="U8" s="503"/>
-      <c r="V8" s="503"/>
-      <c r="W8" s="503"/>
-      <c r="X8" s="503"/>
-      <c r="Y8" s="503"/>
-      <c r="Z8" s="503"/>
-    </row>
-    <row r="9" ht="29.25" customHeight="1">
-      <c r="A9" s="503"/>
-      <c r="B9" s="498">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="501" t="s">
+      <c r="E9" s="499" t="s">
         <v>420</v>
       </c>
-      <c r="D9" s="502" t="s">
+      <c r="F9" s="504"/>
+      <c r="G9" s="504"/>
+      <c r="H9" s="504"/>
+      <c r="I9" s="504"/>
+      <c r="J9" s="504"/>
+      <c r="K9" s="504"/>
+      <c r="L9" s="504"/>
+      <c r="M9" s="504"/>
+      <c r="N9" s="504"/>
+      <c r="O9" s="504"/>
+      <c r="P9" s="504"/>
+      <c r="Q9" s="504"/>
+      <c r="R9" s="504"/>
+      <c r="S9" s="504"/>
+      <c r="T9" s="504"/>
+      <c r="U9" s="504"/>
+      <c r="V9" s="504"/>
+      <c r="W9" s="504"/>
+      <c r="X9" s="504"/>
+      <c r="Y9" s="504"/>
+      <c r="Z9" s="504"/>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
+      <c r="A10" s="504"/>
+      <c r="B10" s="499">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="502" t="s">
         <v>421</v>
       </c>
-      <c r="E9" s="498" t="s">
+      <c r="D10" s="503" t="s">
         <v>422</v>
       </c>
-      <c r="F9" s="503"/>
-      <c r="G9" s="503"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="503"/>
-      <c r="J9" s="503"/>
-      <c r="K9" s="503"/>
-      <c r="L9" s="503"/>
-      <c r="M9" s="503"/>
-      <c r="N9" s="503"/>
-      <c r="O9" s="503"/>
-      <c r="P9" s="503"/>
-      <c r="Q9" s="503"/>
-      <c r="R9" s="503"/>
-      <c r="S9" s="503"/>
-      <c r="T9" s="503"/>
-      <c r="U9" s="503"/>
-      <c r="V9" s="503"/>
-      <c r="W9" s="503"/>
-      <c r="X9" s="503"/>
-      <c r="Y9" s="503"/>
-      <c r="Z9" s="503"/>
-    </row>
-    <row r="10" ht="28.5" customHeight="1">
-      <c r="A10" s="503"/>
-      <c r="B10" s="498">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="501" t="s">
+      <c r="E10" s="499" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="504"/>
+      <c r="G10" s="504"/>
+      <c r="H10" s="504"/>
+      <c r="I10" s="504"/>
+      <c r="J10" s="504"/>
+      <c r="K10" s="504"/>
+      <c r="L10" s="504"/>
+      <c r="M10" s="504"/>
+      <c r="N10" s="504"/>
+      <c r="O10" s="504"/>
+      <c r="P10" s="504"/>
+      <c r="Q10" s="504"/>
+      <c r="R10" s="504"/>
+      <c r="S10" s="504"/>
+      <c r="T10" s="504"/>
+      <c r="U10" s="504"/>
+      <c r="V10" s="504"/>
+      <c r="W10" s="504"/>
+      <c r="X10" s="504"/>
+      <c r="Y10" s="504"/>
+      <c r="Z10" s="504"/>
+    </row>
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="504"/>
+      <c r="B11" s="499">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="502" t="s">
         <v>423</v>
       </c>
-      <c r="D10" s="502" t="s">
+      <c r="D11" s="503" t="s">
         <v>424</v>
       </c>
-      <c r="E10" s="498" t="s">
-        <v>416</v>
-      </c>
-      <c r="F10" s="503"/>
-      <c r="G10" s="503"/>
-      <c r="H10" s="503"/>
-      <c r="I10" s="503"/>
-      <c r="J10" s="503"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="503"/>
-      <c r="M10" s="503"/>
-      <c r="N10" s="503"/>
-      <c r="O10" s="503"/>
-      <c r="P10" s="503"/>
-      <c r="Q10" s="503"/>
-      <c r="R10" s="503"/>
-      <c r="S10" s="503"/>
-      <c r="T10" s="503"/>
-      <c r="U10" s="503"/>
-      <c r="V10" s="503"/>
-      <c r="W10" s="503"/>
-      <c r="X10" s="503"/>
-      <c r="Y10" s="503"/>
-      <c r="Z10" s="503"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1">
-      <c r="A11" s="503"/>
-      <c r="B11" s="498">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="501" t="s">
+      <c r="E11" s="499" t="s">
         <v>425</v>
       </c>
-      <c r="D11" s="502" t="s">
+      <c r="F11" s="504"/>
+      <c r="G11" s="504"/>
+      <c r="H11" s="504"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="504"/>
+      <c r="K11" s="504"/>
+      <c r="L11" s="504"/>
+      <c r="M11" s="504"/>
+      <c r="N11" s="504"/>
+      <c r="O11" s="504"/>
+      <c r="P11" s="504"/>
+      <c r="Q11" s="504"/>
+      <c r="R11" s="504"/>
+      <c r="S11" s="504"/>
+      <c r="T11" s="504"/>
+      <c r="U11" s="504"/>
+      <c r="V11" s="504"/>
+      <c r="W11" s="504"/>
+      <c r="X11" s="504"/>
+      <c r="Y11" s="504"/>
+      <c r="Z11" s="504"/>
+    </row>
+    <row r="12" ht="29.25" customHeight="1">
+      <c r="A12" s="504"/>
+      <c r="B12" s="499">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="502" t="s">
         <v>426</v>
       </c>
-      <c r="E11" s="498" t="s">
+      <c r="D12" s="503" t="s">
         <v>427</v>
       </c>
-      <c r="F11" s="503"/>
-      <c r="G11" s="503"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="503"/>
-      <c r="K11" s="503"/>
-      <c r="L11" s="503"/>
-      <c r="M11" s="503"/>
-      <c r="N11" s="503"/>
-      <c r="O11" s="503"/>
-      <c r="P11" s="503"/>
-      <c r="Q11" s="503"/>
-      <c r="R11" s="503"/>
-      <c r="S11" s="503"/>
-      <c r="T11" s="503"/>
-      <c r="U11" s="503"/>
-      <c r="V11" s="503"/>
-      <c r="W11" s="503"/>
-      <c r="X11" s="503"/>
-      <c r="Y11" s="503"/>
-      <c r="Z11" s="503"/>
-    </row>
-    <row r="12" ht="29.25" customHeight="1">
-      <c r="A12" s="503"/>
-      <c r="B12" s="498">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="501" t="s">
+      <c r="E12" s="499" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="504"/>
+      <c r="G12" s="504"/>
+      <c r="H12" s="504"/>
+      <c r="I12" s="504"/>
+      <c r="J12" s="504"/>
+      <c r="K12" s="504"/>
+      <c r="L12" s="504"/>
+      <c r="M12" s="504"/>
+      <c r="N12" s="504"/>
+      <c r="O12" s="504"/>
+      <c r="P12" s="504"/>
+      <c r="Q12" s="504"/>
+      <c r="R12" s="504"/>
+      <c r="S12" s="504"/>
+      <c r="T12" s="504"/>
+      <c r="U12" s="504"/>
+      <c r="V12" s="504"/>
+      <c r="W12" s="504"/>
+      <c r="X12" s="504"/>
+      <c r="Y12" s="504"/>
+      <c r="Z12" s="504"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1">
+      <c r="A13" s="504"/>
+      <c r="B13" s="499">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="502" t="s">
         <v>428</v>
       </c>
-      <c r="D12" s="502" t="s">
+      <c r="D13" s="503" t="s">
         <v>429</v>
       </c>
-      <c r="E12" s="498" t="s">
-        <v>427</v>
-      </c>
-      <c r="F12" s="503"/>
-      <c r="G12" s="503"/>
-      <c r="H12" s="503"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="503"/>
-      <c r="K12" s="503"/>
-      <c r="L12" s="503"/>
-      <c r="M12" s="503"/>
-      <c r="N12" s="503"/>
-      <c r="O12" s="503"/>
-      <c r="P12" s="503"/>
-      <c r="Q12" s="503"/>
-      <c r="R12" s="503"/>
-      <c r="S12" s="503"/>
-      <c r="T12" s="503"/>
-      <c r="U12" s="503"/>
-      <c r="V12" s="503"/>
-      <c r="W12" s="503"/>
-      <c r="X12" s="503"/>
-      <c r="Y12" s="503"/>
-      <c r="Z12" s="503"/>
-    </row>
-    <row r="13" ht="29.25" customHeight="1">
-      <c r="A13" s="503"/>
-      <c r="B13" s="498">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="501" t="s">
+      <c r="E13" s="499" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="504"/>
+      <c r="G13" s="504"/>
+      <c r="H13" s="504"/>
+      <c r="I13" s="504"/>
+      <c r="J13" s="504"/>
+      <c r="K13" s="504"/>
+      <c r="L13" s="504"/>
+      <c r="M13" s="504"/>
+      <c r="N13" s="504"/>
+      <c r="O13" s="504"/>
+      <c r="P13" s="504"/>
+      <c r="Q13" s="504"/>
+      <c r="R13" s="504"/>
+      <c r="S13" s="504"/>
+      <c r="T13" s="504"/>
+      <c r="U13" s="504"/>
+      <c r="V13" s="504"/>
+      <c r="W13" s="504"/>
+      <c r="X13" s="504"/>
+      <c r="Y13" s="504"/>
+      <c r="Z13" s="504"/>
+    </row>
+    <row r="14" ht="28.5" customHeight="1">
+      <c r="A14" s="504"/>
+      <c r="B14" s="499">
+        <v>9.0</v>
+      </c>
+      <c r="C14" s="502" t="s">
         <v>430</v>
       </c>
-      <c r="D13" s="502" t="s">
+      <c r="D14" s="503" t="s">
         <v>431</v>
       </c>
-      <c r="E13" s="498" t="s">
-        <v>427</v>
-      </c>
-      <c r="F13" s="503"/>
-      <c r="G13" s="503"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="503"/>
-      <c r="J13" s="503"/>
-      <c r="K13" s="503"/>
-      <c r="L13" s="503"/>
-      <c r="M13" s="503"/>
-      <c r="N13" s="503"/>
-      <c r="O13" s="503"/>
-      <c r="P13" s="503"/>
-      <c r="Q13" s="503"/>
-      <c r="R13" s="503"/>
-      <c r="S13" s="503"/>
-      <c r="T13" s="503"/>
-      <c r="U13" s="503"/>
-      <c r="V13" s="503"/>
-      <c r="W13" s="503"/>
-      <c r="X13" s="503"/>
-      <c r="Y13" s="503"/>
-      <c r="Z13" s="503"/>
-    </row>
-    <row r="14" ht="28.5" customHeight="1">
-      <c r="A14" s="503"/>
-      <c r="B14" s="498">
-        <v>9.0</v>
-      </c>
-      <c r="C14" s="501" t="s">
+      <c r="E14" s="499" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="504"/>
+      <c r="G14" s="504"/>
+      <c r="H14" s="504"/>
+      <c r="I14" s="504"/>
+      <c r="J14" s="504"/>
+      <c r="K14" s="504"/>
+      <c r="L14" s="504"/>
+      <c r="M14" s="504"/>
+      <c r="N14" s="504"/>
+      <c r="O14" s="504"/>
+      <c r="P14" s="504"/>
+      <c r="Q14" s="504"/>
+      <c r="R14" s="504"/>
+      <c r="S14" s="504"/>
+      <c r="T14" s="504"/>
+      <c r="U14" s="504"/>
+      <c r="V14" s="504"/>
+      <c r="W14" s="504"/>
+      <c r="X14" s="504"/>
+      <c r="Y14" s="504"/>
+      <c r="Z14" s="504"/>
+    </row>
+    <row r="15" ht="28.5" customHeight="1">
+      <c r="A15" s="504"/>
+      <c r="B15" s="499">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="502" t="s">
         <v>432</v>
       </c>
-      <c r="D14" s="502" t="s">
+      <c r="D15" s="503" t="s">
         <v>433</v>
       </c>
-      <c r="E14" s="498" t="s">
-        <v>427</v>
-      </c>
-      <c r="F14" s="503"/>
-      <c r="G14" s="503"/>
-      <c r="H14" s="503"/>
-      <c r="I14" s="503"/>
-      <c r="J14" s="503"/>
-      <c r="K14" s="503"/>
-      <c r="L14" s="503"/>
-      <c r="M14" s="503"/>
-      <c r="N14" s="503"/>
-      <c r="O14" s="503"/>
-      <c r="P14" s="503"/>
-      <c r="Q14" s="503"/>
-      <c r="R14" s="503"/>
-      <c r="S14" s="503"/>
-      <c r="T14" s="503"/>
-      <c r="U14" s="503"/>
-      <c r="V14" s="503"/>
-      <c r="W14" s="503"/>
-      <c r="X14" s="503"/>
-      <c r="Y14" s="503"/>
-      <c r="Z14" s="503"/>
-    </row>
-    <row r="15" ht="28.5" customHeight="1">
-      <c r="A15" s="503"/>
-      <c r="B15" s="498">
-        <v>10.0</v>
-      </c>
-      <c r="C15" s="501" t="s">
+      <c r="E15" s="499" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="504"/>
+      <c r="G15" s="504"/>
+      <c r="H15" s="504"/>
+      <c r="I15" s="504"/>
+      <c r="J15" s="504"/>
+      <c r="K15" s="504"/>
+      <c r="L15" s="504"/>
+      <c r="M15" s="504"/>
+      <c r="N15" s="504"/>
+      <c r="O15" s="504"/>
+      <c r="P15" s="504"/>
+      <c r="Q15" s="504"/>
+      <c r="R15" s="504"/>
+      <c r="S15" s="504"/>
+      <c r="T15" s="504"/>
+      <c r="U15" s="504"/>
+      <c r="V15" s="504"/>
+      <c r="W15" s="504"/>
+      <c r="X15" s="504"/>
+      <c r="Y15" s="504"/>
+      <c r="Z15" s="504"/>
+    </row>
+    <row r="16" ht="28.5" customHeight="1">
+      <c r="A16" s="504"/>
+      <c r="B16" s="499">
+        <v>11.0</v>
+      </c>
+      <c r="C16" s="502" t="s">
         <v>434</v>
       </c>
-      <c r="D15" s="502" t="s">
+      <c r="D16" s="503" t="s">
         <v>435</v>
       </c>
-      <c r="E15" s="498" t="s">
-        <v>427</v>
-      </c>
-      <c r="F15" s="503"/>
-      <c r="G15" s="503"/>
-      <c r="H15" s="503"/>
-      <c r="I15" s="503"/>
-      <c r="J15" s="503"/>
-      <c r="K15" s="503"/>
-      <c r="L15" s="503"/>
-      <c r="M15" s="503"/>
-      <c r="N15" s="503"/>
-      <c r="O15" s="503"/>
-      <c r="P15" s="503"/>
-      <c r="Q15" s="503"/>
-      <c r="R15" s="503"/>
-      <c r="S15" s="503"/>
-      <c r="T15" s="503"/>
-      <c r="U15" s="503"/>
-      <c r="V15" s="503"/>
-      <c r="W15" s="503"/>
-      <c r="X15" s="503"/>
-      <c r="Y15" s="503"/>
-      <c r="Z15" s="503"/>
-    </row>
-    <row r="16" ht="28.5" customHeight="1">
-      <c r="A16" s="503"/>
-      <c r="B16" s="498">
-        <v>11.0</v>
-      </c>
-      <c r="C16" s="501" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="502" t="s">
-        <v>437</v>
-      </c>
-      <c r="E16" s="498" t="s">
-        <v>427</v>
-      </c>
-      <c r="F16" s="503"/>
-      <c r="G16" s="503"/>
-      <c r="H16" s="503"/>
-      <c r="I16" s="503"/>
-      <c r="J16" s="503"/>
-      <c r="K16" s="503"/>
-      <c r="L16" s="503"/>
-      <c r="M16" s="503"/>
-      <c r="N16" s="503"/>
-      <c r="O16" s="503"/>
-      <c r="P16" s="503"/>
-      <c r="Q16" s="503"/>
-      <c r="R16" s="503"/>
-      <c r="S16" s="503"/>
-      <c r="T16" s="503"/>
-      <c r="U16" s="503"/>
-      <c r="V16" s="503"/>
-      <c r="W16" s="503"/>
-      <c r="X16" s="503"/>
-      <c r="Y16" s="503"/>
-      <c r="Z16" s="503"/>
+      <c r="E16" s="499" t="s">
+        <v>425</v>
+      </c>
+      <c r="F16" s="504"/>
+      <c r="G16" s="504"/>
+      <c r="H16" s="504"/>
+      <c r="I16" s="504"/>
+      <c r="J16" s="504"/>
+      <c r="K16" s="504"/>
+      <c r="L16" s="504"/>
+      <c r="M16" s="504"/>
+      <c r="N16" s="504"/>
+      <c r="O16" s="504"/>
+      <c r="P16" s="504"/>
+      <c r="Q16" s="504"/>
+      <c r="R16" s="504"/>
+      <c r="S16" s="504"/>
+      <c r="T16" s="504"/>
+      <c r="U16" s="504"/>
+      <c r="V16" s="504"/>
+      <c r="W16" s="504"/>
+      <c r="X16" s="504"/>
+      <c r="Y16" s="504"/>
+      <c r="Z16" s="504"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="504"/>
-      <c r="E17" s="493"/>
+      <c r="B17" s="505"/>
+      <c r="E17" s="494"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="504"/>
-      <c r="E18" s="493"/>
+      <c r="B18" s="505"/>
+      <c r="E18" s="494"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="504"/>
-      <c r="E19" s="493"/>
+      <c r="B19" s="505"/>
+      <c r="E19" s="494"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="504"/>
-      <c r="E20" s="493"/>
+      <c r="B20" s="505"/>
+      <c r="E20" s="494"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="504"/>
-      <c r="E21" s="493"/>
+      <c r="B21" s="505"/>
+      <c r="E21" s="494"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="504"/>
-      <c r="E22" s="493"/>
+      <c r="B22" s="505"/>
+      <c r="E22" s="494"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="504"/>
-      <c r="E23" s="493"/>
+      <c r="B23" s="505"/>
+      <c r="E23" s="494"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="504"/>
-      <c r="E24" s="493"/>
+      <c r="B24" s="505"/>
+      <c r="E24" s="494"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="504"/>
-      <c r="E25" s="493"/>
+      <c r="B25" s="505"/>
+      <c r="E25" s="494"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="504"/>
-      <c r="E26" s="493"/>
+      <c r="B26" s="505"/>
+      <c r="E26" s="494"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="504"/>
-      <c r="E27" s="493"/>
+      <c r="B27" s="505"/>
+      <c r="E27" s="494"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="504"/>
-      <c r="E28" s="493"/>
+      <c r="B28" s="505"/>
+      <c r="E28" s="494"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="504"/>
-      <c r="E29" s="493"/>
+      <c r="B29" s="505"/>
+      <c r="E29" s="494"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="504"/>
-      <c r="E30" s="493"/>
+      <c r="B30" s="505"/>
+      <c r="E30" s="494"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="504"/>
-      <c r="E31" s="493"/>
+      <c r="B31" s="505"/>
+      <c r="E31" s="494"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="B32" s="504"/>
-      <c r="E32" s="493"/>
+      <c r="B32" s="505"/>
+      <c r="E32" s="494"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="B33" s="504"/>
-      <c r="E33" s="493"/>
+      <c r="B33" s="505"/>
+      <c r="E33" s="494"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="B34" s="504"/>
-      <c r="E34" s="493"/>
+      <c r="B34" s="505"/>
+      <c r="E34" s="494"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="B35" s="504"/>
-      <c r="E35" s="493"/>
+      <c r="B35" s="505"/>
+      <c r="E35" s="494"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="B36" s="504"/>
-      <c r="E36" s="493"/>
+      <c r="B36" s="505"/>
+      <c r="E36" s="494"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="504"/>
-      <c r="E37" s="493"/>
+      <c r="B37" s="505"/>
+      <c r="E37" s="494"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="504"/>
-      <c r="E38" s="493"/>
+      <c r="B38" s="505"/>
+      <c r="E38" s="494"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="504"/>
-      <c r="E39" s="493"/>
+      <c r="B39" s="505"/>
+      <c r="E39" s="494"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="504"/>
-      <c r="E40" s="493"/>
+      <c r="B40" s="505"/>
+      <c r="E40" s="494"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="504"/>
-      <c r="E41" s="493"/>
+      <c r="B41" s="505"/>
+      <c r="E41" s="494"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="B42" s="504"/>
-      <c r="E42" s="493"/>
+      <c r="B42" s="505"/>
+      <c r="E42" s="494"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="B43" s="504"/>
-      <c r="E43" s="493"/>
+      <c r="B43" s="505"/>
+      <c r="E43" s="494"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="B44" s="504"/>
-      <c r="E44" s="493"/>
+      <c r="B44" s="505"/>
+      <c r="E44" s="494"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="B45" s="504"/>
-      <c r="E45" s="493"/>
+      <c r="B45" s="505"/>
+      <c r="E45" s="494"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="B46" s="504"/>
-      <c r="E46" s="493"/>
+      <c r="B46" s="505"/>
+      <c r="E46" s="494"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="B47" s="504"/>
-      <c r="E47" s="493"/>
+      <c r="B47" s="505"/>
+      <c r="E47" s="494"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="B48" s="504"/>
-      <c r="E48" s="493"/>
+      <c r="B48" s="505"/>
+      <c r="E48" s="494"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="B49" s="504"/>
-      <c r="E49" s="493"/>
+      <c r="B49" s="505"/>
+      <c r="E49" s="494"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="E50" s="493"/>
+      <c r="E50" s="494"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="E51" s="493"/>
+      <c r="E51" s="494"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="E52" s="493"/>
+      <c r="E52" s="494"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="E53" s="493"/>
+      <c r="E53" s="494"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="E54" s="493"/>
+      <c r="E54" s="494"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="E55" s="493"/>
+      <c r="E55" s="494"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="E56" s="493"/>
+      <c r="E56" s="494"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="E57" s="493"/>
+      <c r="E57" s="494"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="E58" s="493"/>
+      <c r="E58" s="494"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="E59" s="493"/>
+      <c r="E59" s="494"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="E60" s="493"/>
+      <c r="E60" s="494"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="E61" s="493"/>
+      <c r="E61" s="494"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="E62" s="493"/>
+      <c r="E62" s="494"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="E63" s="493"/>
+      <c r="E63" s="494"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="E64" s="493"/>
+      <c r="E64" s="494"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="E65" s="493"/>
+      <c r="E65" s="494"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="E66" s="493"/>
+      <c r="E66" s="494"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="E67" s="493"/>
+      <c r="E67" s="494"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="E68" s="493"/>
+      <c r="E68" s="494"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="E69" s="493"/>
+      <c r="E69" s="494"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="E70" s="493"/>
+      <c r="E70" s="494"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="E71" s="493"/>
+      <c r="E71" s="494"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="E72" s="493"/>
+      <c r="E72" s="494"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="E73" s="493"/>
+      <c r="E73" s="494"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="E74" s="493"/>
+      <c r="E74" s="494"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="E75" s="493"/>
+      <c r="E75" s="494"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="E76" s="493"/>
+      <c r="E76" s="494"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="E77" s="493"/>
+      <c r="E77" s="494"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="E78" s="493"/>
+      <c r="E78" s="494"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="E79" s="493"/>
+      <c r="E79" s="494"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="E80" s="493"/>
+      <c r="E80" s="494"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="E81" s="493"/>
+      <c r="E81" s="494"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="E82" s="493"/>
+      <c r="E82" s="494"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="E83" s="493"/>
+      <c r="E83" s="494"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="E84" s="493"/>
+      <c r="E84" s="494"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="E85" s="493"/>
+      <c r="E85" s="494"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="E86" s="493"/>
+      <c r="E86" s="494"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="E87" s="493"/>
+      <c r="E87" s="494"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="E88" s="493"/>
+      <c r="E88" s="494"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="E89" s="493"/>
+      <c r="E89" s="494"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="E90" s="493"/>
+      <c r="E90" s="494"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="E91" s="493"/>
+      <c r="E91" s="494"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="E92" s="493"/>
+      <c r="E92" s="494"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="E93" s="493"/>
+      <c r="E93" s="494"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="E94" s="493"/>
+      <c r="E94" s="494"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="E95" s="493"/>
+      <c r="E95" s="494"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="E96" s="493"/>
+      <c r="E96" s="494"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="E97" s="493"/>
+      <c r="E97" s="494"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="E98" s="493"/>
+      <c r="E98" s="494"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="E99" s="493"/>
+      <c r="E99" s="494"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="E100" s="493"/>
+      <c r="E100" s="494"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="E101" s="493"/>
+      <c r="E101" s="494"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="E102" s="493"/>
+      <c r="E102" s="494"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="E103" s="493"/>
+      <c r="E103" s="494"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="E104" s="493"/>
+      <c r="E104" s="494"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="E105" s="493"/>
+      <c r="E105" s="494"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="E106" s="493"/>
+      <c r="E106" s="494"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="E107" s="493"/>
+      <c r="E107" s="494"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="E108" s="493"/>
+      <c r="E108" s="494"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="E109" s="493"/>
+      <c r="E109" s="494"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="E110" s="493"/>
+      <c r="E110" s="494"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="E111" s="493"/>
+      <c r="E111" s="494"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="E112" s="493"/>
+      <c r="E112" s="494"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="E113" s="493"/>
+      <c r="E113" s="494"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="E114" s="493"/>
+      <c r="E114" s="494"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="E115" s="493"/>
+      <c r="E115" s="494"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="E116" s="493"/>
+      <c r="E116" s="494"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="E117" s="493"/>
+      <c r="E117" s="494"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="E118" s="493"/>
+      <c r="E118" s="494"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="E119" s="493"/>
+      <c r="E119" s="494"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="E120" s="493"/>
+      <c r="E120" s="494"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="E121" s="493"/>
+      <c r="E121" s="494"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="E122" s="493"/>
+      <c r="E122" s="494"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="E123" s="493"/>
+      <c r="E123" s="494"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="E124" s="493"/>
+      <c r="E124" s="494"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="E125" s="493"/>
+      <c r="E125" s="494"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="E126" s="493"/>
+      <c r="E126" s="494"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="E127" s="493"/>
+      <c r="E127" s="494"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="E128" s="493"/>
+      <c r="E128" s="494"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="E129" s="493"/>
+      <c r="E129" s="494"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="E130" s="493"/>
+      <c r="E130" s="494"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="E131" s="493"/>
+      <c r="E131" s="494"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="E132" s="493"/>
+      <c r="E132" s="494"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="E133" s="493"/>
+      <c r="E133" s="494"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="E134" s="493"/>
+      <c r="E134" s="494"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="E135" s="493"/>
+      <c r="E135" s="494"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="E136" s="493"/>
+      <c r="E136" s="494"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="E137" s="493"/>
+      <c r="E137" s="494"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="E138" s="493"/>
+      <c r="E138" s="494"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="E139" s="493"/>
+      <c r="E139" s="494"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="E140" s="493"/>
+      <c r="E140" s="494"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="E141" s="493"/>
+      <c r="E141" s="494"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="E142" s="493"/>
+      <c r="E142" s="494"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="E143" s="493"/>
+      <c r="E143" s="494"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="E144" s="493"/>
+      <c r="E144" s="494"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="E145" s="493"/>
+      <c r="E145" s="494"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="E146" s="493"/>
+      <c r="E146" s="494"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="E147" s="493"/>
+      <c r="E147" s="494"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="E148" s="493"/>
+      <c r="E148" s="494"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="E149" s="493"/>
+      <c r="E149" s="494"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="E150" s="493"/>
+      <c r="E150" s="494"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="E151" s="493"/>
+      <c r="E151" s="494"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="E152" s="493"/>
+      <c r="E152" s="494"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="E153" s="493"/>
+      <c r="E153" s="494"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="E154" s="493"/>
+      <c r="E154" s="494"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="E155" s="493"/>
+      <c r="E155" s="494"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="E156" s="493"/>
+      <c r="E156" s="494"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="E157" s="493"/>
+      <c r="E157" s="494"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="E158" s="493"/>
+      <c r="E158" s="494"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="E159" s="493"/>
+      <c r="E159" s="494"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="E160" s="493"/>
+      <c r="E160" s="494"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="E161" s="493"/>
+      <c r="E161" s="494"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="E162" s="493"/>
+      <c r="E162" s="494"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="E163" s="493"/>
+      <c r="E163" s="494"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="E164" s="493"/>
+      <c r="E164" s="494"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="E165" s="493"/>
+      <c r="E165" s="494"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="E166" s="493"/>
+      <c r="E166" s="494"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="E167" s="493"/>
+      <c r="E167" s="494"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="E168" s="493"/>
+      <c r="E168" s="494"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="E169" s="493"/>
+      <c r="E169" s="494"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="E170" s="493"/>
+      <c r="E170" s="494"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="E171" s="493"/>
+      <c r="E171" s="494"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="E172" s="493"/>
+      <c r="E172" s="494"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="E173" s="493"/>
+      <c r="E173" s="494"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="E174" s="493"/>
+      <c r="E174" s="494"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="E175" s="493"/>
+      <c r="E175" s="494"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="E176" s="493"/>
+      <c r="E176" s="494"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="E177" s="493"/>
+      <c r="E177" s="494"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="E178" s="493"/>
+      <c r="E178" s="494"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="E179" s="493"/>
+      <c r="E179" s="494"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="E180" s="493"/>
+      <c r="E180" s="494"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="E181" s="493"/>
+      <c r="E181" s="494"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="E182" s="493"/>
+      <c r="E182" s="494"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="E183" s="493"/>
+      <c r="E183" s="494"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="E184" s="493"/>
+      <c r="E184" s="494"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="E185" s="493"/>
+      <c r="E185" s="494"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="E186" s="493"/>
+      <c r="E186" s="494"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="E187" s="493"/>
+      <c r="E187" s="494"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="E188" s="493"/>
+      <c r="E188" s="494"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="E189" s="493"/>
+      <c r="E189" s="494"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="E190" s="493"/>
+      <c r="E190" s="494"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="E191" s="493"/>
+      <c r="E191" s="494"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="E192" s="493"/>
+      <c r="E192" s="494"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="E193" s="493"/>
+      <c r="E193" s="494"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="E194" s="493"/>
+      <c r="E194" s="494"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="E195" s="493"/>
+      <c r="E195" s="494"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="E196" s="493"/>
+      <c r="E196" s="494"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="E197" s="493"/>
+      <c r="E197" s="494"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="E198" s="493"/>
+      <c r="E198" s="494"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="E199" s="493"/>
+      <c r="E199" s="494"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="E200" s="493"/>
+      <c r="E200" s="494"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="E201" s="493"/>
+      <c r="E201" s="494"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="E202" s="493"/>
+      <c r="E202" s="494"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="E203" s="493"/>
+      <c r="E203" s="494"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="E204" s="493"/>
+      <c r="E204" s="494"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="E205" s="493"/>
+      <c r="E205" s="494"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="E206" s="493"/>
+      <c r="E206" s="494"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="E207" s="493"/>
+      <c r="E207" s="494"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="E208" s="493"/>
+      <c r="E208" s="494"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="E209" s="493"/>
+      <c r="E209" s="494"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="E210" s="493"/>
+      <c r="E210" s="494"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="E211" s="493"/>
+      <c r="E211" s="494"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="E212" s="493"/>
+      <c r="E212" s="494"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="E213" s="493"/>
+      <c r="E213" s="494"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="E214" s="493"/>
+      <c r="E214" s="494"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="E215" s="493"/>
+      <c r="E215" s="494"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="E216" s="493"/>
+      <c r="E216" s="494"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="E217" s="493"/>
+      <c r="E217" s="494"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="E218" s="493"/>
+      <c r="E218" s="494"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="E219" s="493"/>
+      <c r="E219" s="494"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="E220" s="493"/>
+      <c r="E220" s="494"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="E221" s="493"/>
+      <c r="E221" s="494"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="E222" s="493"/>
+      <c r="E222" s="494"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="E223" s="493"/>
+      <c r="E223" s="494"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="E224" s="493"/>
+      <c r="E224" s="494"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="E225" s="493"/>
+      <c r="E225" s="494"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="E226" s="493"/>
+      <c r="E226" s="494"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="E227" s="493"/>
+      <c r="E227" s="494"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="E228" s="493"/>
+      <c r="E228" s="494"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="E229" s="493"/>
+      <c r="E229" s="494"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="E230" s="493"/>
+      <c r="E230" s="494"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="E231" s="493"/>
+      <c r="E231" s="494"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="E232" s="493"/>
+      <c r="E232" s="494"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="E233" s="493"/>
+      <c r="E233" s="494"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="E234" s="493"/>
+      <c r="E234" s="494"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="E235" s="493"/>
+      <c r="E235" s="494"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="E236" s="493"/>
+      <c r="E236" s="494"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="E237" s="493"/>
+      <c r="E237" s="494"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="E238" s="493"/>
+      <c r="E238" s="494"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="E239" s="493"/>
+      <c r="E239" s="494"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="E240" s="493"/>
+      <c r="E240" s="494"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="E241" s="493"/>
+      <c r="E241" s="494"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="E242" s="493"/>
+      <c r="E242" s="494"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="E243" s="493"/>
+      <c r="E243" s="494"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="E244" s="493"/>
+      <c r="E244" s="494"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="E245" s="493"/>
+      <c r="E245" s="494"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="E246" s="493"/>
+      <c r="E246" s="494"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="E247" s="493"/>
+      <c r="E247" s="494"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="E248" s="493"/>
+      <c r="E248" s="494"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="E249" s="493"/>
+      <c r="E249" s="494"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="E250" s="493"/>
+      <c r="E250" s="494"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="E251" s="493"/>
+      <c r="E251" s="494"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="E252" s="493"/>
+      <c r="E252" s="494"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="E253" s="493"/>
+      <c r="E253" s="494"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="E254" s="493"/>
+      <c r="E254" s="494"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
-      <c r="E255" s="493"/>
+      <c r="E255" s="494"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
-      <c r="E256" s="493"/>
+      <c r="E256" s="494"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
-      <c r="E257" s="493"/>
+      <c r="E257" s="494"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
-      <c r="E258" s="493"/>
+      <c r="E258" s="494"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
-      <c r="E259" s="493"/>
+      <c r="E259" s="494"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="E260" s="493"/>
+      <c r="E260" s="494"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
-      <c r="E261" s="493"/>
+      <c r="E261" s="494"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="E262" s="493"/>
+      <c r="E262" s="494"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="E263" s="493"/>
+      <c r="E263" s="494"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="E264" s="493"/>
+      <c r="E264" s="494"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="E265" s="493"/>
+      <c r="E265" s="494"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
-      <c r="E266" s="493"/>
+      <c r="E266" s="494"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="E267" s="493"/>
+      <c r="E267" s="494"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="E268" s="493"/>
+      <c r="E268" s="494"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="E269" s="493"/>
+      <c r="E269" s="494"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="E270" s="493"/>
+      <c r="E270" s="494"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="E271" s="493"/>
+      <c r="E271" s="494"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="E272" s="493"/>
+      <c r="E272" s="494"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="E273" s="493"/>
+      <c r="E273" s="494"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="E274" s="493"/>
+      <c r="E274" s="494"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="E275" s="493"/>
+      <c r="E275" s="494"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="E276" s="493"/>
+      <c r="E276" s="494"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="E277" s="493"/>
+      <c r="E277" s="494"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="E278" s="493"/>
+      <c r="E278" s="494"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="E279" s="493"/>
+      <c r="E279" s="494"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="E280" s="493"/>
+      <c r="E280" s="494"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="E281" s="493"/>
+      <c r="E281" s="494"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="E282" s="493"/>
+      <c r="E282" s="494"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="E283" s="493"/>
+      <c r="E283" s="494"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
-      <c r="E284" s="493"/>
+      <c r="E284" s="494"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="E285" s="493"/>
+      <c r="E285" s="494"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
-      <c r="E286" s="493"/>
+      <c r="E286" s="494"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
-      <c r="E287" s="493"/>
+      <c r="E287" s="494"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
-      <c r="E288" s="493"/>
+      <c r="E288" s="494"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="E289" s="493"/>
+      <c r="E289" s="494"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="E290" s="493"/>
+      <c r="E290" s="494"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="E291" s="493"/>
+      <c r="E291" s="494"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="E292" s="493"/>
+      <c r="E292" s="494"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
-      <c r="E293" s="493"/>
+      <c r="E293" s="494"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
-      <c r="E294" s="493"/>
+      <c r="E294" s="494"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
-      <c r="E295" s="493"/>
+      <c r="E295" s="494"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
-      <c r="E296" s="493"/>
+      <c r="E296" s="494"/>
     </row>
     <row r="297" ht="12.75" customHeight="1">
-      <c r="E297" s="493"/>
+      <c r="E297" s="494"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
-      <c r="E298" s="493"/>
+      <c r="E298" s="494"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
-      <c r="E299" s="493"/>
+      <c r="E299" s="494"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
-      <c r="E300" s="493"/>
+      <c r="E300" s="494"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="E301" s="493"/>
+      <c r="E301" s="494"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
-      <c r="E302" s="493"/>
+      <c r="E302" s="494"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
-      <c r="E303" s="493"/>
+      <c r="E303" s="494"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
-      <c r="E304" s="493"/>
+      <c r="E304" s="494"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
-      <c r="E305" s="493"/>
+      <c r="E305" s="494"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
-      <c r="E306" s="493"/>
+      <c r="E306" s="494"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="E307" s="493"/>
+      <c r="E307" s="494"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="E308" s="493"/>
+      <c r="E308" s="494"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
-      <c r="E309" s="493"/>
+      <c r="E309" s="494"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
-      <c r="E310" s="493"/>
+      <c r="E310" s="494"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
-      <c r="E311" s="493"/>
+      <c r="E311" s="494"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
-      <c r="E312" s="493"/>
+      <c r="E312" s="494"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
-      <c r="E313" s="493"/>
+      <c r="E313" s="494"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
-      <c r="E314" s="493"/>
+      <c r="E314" s="494"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
-      <c r="E315" s="493"/>
+      <c r="E315" s="494"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
-      <c r="E316" s="493"/>
+      <c r="E316" s="494"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
-      <c r="E317" s="493"/>
+      <c r="E317" s="494"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
-      <c r="E318" s="493"/>
+      <c r="E318" s="494"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
-      <c r="E319" s="493"/>
+      <c r="E319" s="494"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
-      <c r="E320" s="493"/>
+      <c r="E320" s="494"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
-      <c r="E321" s="493"/>
+      <c r="E321" s="494"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
-      <c r="E322" s="493"/>
+      <c r="E322" s="494"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
-      <c r="E323" s="493"/>
+      <c r="E323" s="494"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
-      <c r="E324" s="493"/>
+      <c r="E324" s="494"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
-      <c r="E325" s="493"/>
+      <c r="E325" s="494"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
-      <c r="E326" s="493"/>
+      <c r="E326" s="494"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="E327" s="493"/>
+      <c r="E327" s="494"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
-      <c r="E328" s="493"/>
+      <c r="E328" s="494"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
-      <c r="E329" s="493"/>
+      <c r="E329" s="494"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
-      <c r="E330" s="493"/>
+      <c r="E330" s="494"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
-      <c r="E331" s="493"/>
+      <c r="E331" s="494"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
-      <c r="E332" s="493"/>
+      <c r="E332" s="494"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
-      <c r="E333" s="493"/>
+      <c r="E333" s="494"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
-      <c r="E334" s="493"/>
+      <c r="E334" s="494"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
-      <c r="E335" s="493"/>
+      <c r="E335" s="494"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
-      <c r="E336" s="493"/>
+      <c r="E336" s="494"/>
     </row>
     <row r="337" ht="12.75" customHeight="1">
-      <c r="E337" s="493"/>
+      <c r="E337" s="494"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
-      <c r="E338" s="493"/>
+      <c r="E338" s="494"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
-      <c r="E339" s="493"/>
+      <c r="E339" s="494"/>
     </row>
     <row r="340" ht="12.75" customHeight="1">
-      <c r="E340" s="493"/>
+      <c r="E340" s="494"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
-      <c r="E341" s="493"/>
+      <c r="E341" s="494"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
-      <c r="E342" s="493"/>
+      <c r="E342" s="494"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
-      <c r="E343" s="493"/>
+      <c r="E343" s="494"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
-      <c r="E344" s="493"/>
+      <c r="E344" s="494"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
-      <c r="E345" s="493"/>
+      <c r="E345" s="494"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="E346" s="493"/>
+      <c r="E346" s="494"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="E347" s="493"/>
+      <c r="E347" s="494"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
-      <c r="E348" s="493"/>
+      <c r="E348" s="494"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
-      <c r="E349" s="493"/>
+      <c r="E349" s="494"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
-      <c r="E350" s="493"/>
+      <c r="E350" s="494"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
-      <c r="E351" s="493"/>
+      <c r="E351" s="494"/>
     </row>
     <row r="352" ht="12.75" customHeight="1">
-      <c r="E352" s="493"/>
+      <c r="E352" s="494"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
-      <c r="E353" s="493"/>
+      <c r="E353" s="494"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
-      <c r="E354" s="493"/>
+      <c r="E354" s="494"/>
     </row>
     <row r="355" ht="12.75" customHeight="1">
-      <c r="E355" s="493"/>
+      <c r="E355" s="494"/>
     </row>
     <row r="356" ht="12.75" customHeight="1">
-      <c r="E356" s="493"/>
+      <c r="E356" s="494"/>
     </row>
     <row r="357" ht="12.75" customHeight="1">
-      <c r="E357" s="493"/>
+      <c r="E357" s="494"/>
     </row>
     <row r="358" ht="12.75" customHeight="1">
-      <c r="E358" s="493"/>
+      <c r="E358" s="494"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
-      <c r="E359" s="493"/>
+      <c r="E359" s="494"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
-      <c r="E360" s="493"/>
+      <c r="E360" s="494"/>
     </row>
     <row r="361" ht="12.75" customHeight="1">
-      <c r="E361" s="493"/>
+      <c r="E361" s="494"/>
     </row>
     <row r="362" ht="12.75" customHeight="1">
-      <c r="E362" s="493"/>
+      <c r="E362" s="494"/>
     </row>
     <row r="363" ht="12.75" customHeight="1">
-      <c r="E363" s="493"/>
+      <c r="E363" s="494"/>
     </row>
     <row r="364" ht="12.75" customHeight="1">
-      <c r="E364" s="493"/>
+      <c r="E364" s="494"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
-      <c r="E365" s="493"/>
+      <c r="E365" s="494"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
-      <c r="E366" s="493"/>
+      <c r="E366" s="494"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
-      <c r="E367" s="493"/>
+      <c r="E367" s="494"/>
     </row>
     <row r="368" ht="12.75" customHeight="1">
-      <c r="E368" s="493"/>
+      <c r="E368" s="494"/>
     </row>
     <row r="369" ht="12.75" customHeight="1">
-      <c r="E369" s="493"/>
+      <c r="E369" s="494"/>
     </row>
     <row r="370" ht="12.75" customHeight="1">
-      <c r="E370" s="493"/>
+      <c r="E370" s="494"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
-      <c r="E371" s="493"/>
+      <c r="E371" s="494"/>
     </row>
     <row r="372" ht="12.75" customHeight="1">
-      <c r="E372" s="493"/>
+      <c r="E372" s="494"/>
     </row>
     <row r="373" ht="12.75" customHeight="1">
-      <c r="E373" s="493"/>
+      <c r="E373" s="494"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
-      <c r="E374" s="493"/>
+      <c r="E374" s="494"/>
     </row>
     <row r="375" ht="12.75" customHeight="1">
-      <c r="E375" s="493"/>
+      <c r="E375" s="494"/>
     </row>
     <row r="376" ht="12.75" customHeight="1">
-      <c r="E376" s="493"/>
+      <c r="E376" s="494"/>
     </row>
     <row r="377" ht="12.75" customHeight="1">
-      <c r="E377" s="493"/>
+      <c r="E377" s="494"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
-      <c r="E378" s="493"/>
+      <c r="E378" s="494"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
-      <c r="E379" s="493"/>
+      <c r="E379" s="494"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
-      <c r="E380" s="493"/>
+      <c r="E380" s="494"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
-      <c r="E381" s="493"/>
+      <c r="E381" s="494"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
-      <c r="E382" s="493"/>
+      <c r="E382" s="494"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
-      <c r="E383" s="493"/>
+      <c r="E383" s="494"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
-      <c r="E384" s="493"/>
+      <c r="E384" s="494"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
-      <c r="E385" s="493"/>
+      <c r="E385" s="494"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
-      <c r="E386" s="493"/>
+      <c r="E386" s="494"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
-      <c r="E387" s="493"/>
+      <c r="E387" s="494"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
-      <c r="E388" s="493"/>
+      <c r="E388" s="494"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
-      <c r="E389" s="493"/>
+      <c r="E389" s="494"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
-      <c r="E390" s="493"/>
+      <c r="E390" s="494"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
-      <c r="E391" s="493"/>
+      <c r="E391" s="494"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
-      <c r="E392" s="493"/>
+      <c r="E392" s="494"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
-      <c r="E393" s="493"/>
+      <c r="E393" s="494"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
-      <c r="E394" s="493"/>
+      <c r="E394" s="494"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
-      <c r="E395" s="493"/>
+      <c r="E395" s="494"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
-      <c r="E396" s="493"/>
+      <c r="E396" s="494"/>
     </row>
     <row r="397" ht="12.75" customHeight="1">
-      <c r="E397" s="493"/>
+      <c r="E397" s="494"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
-      <c r="E398" s="493"/>
+      <c r="E398" s="494"/>
     </row>
     <row r="399" ht="12.75" customHeight="1">
-      <c r="E399" s="493"/>
+      <c r="E399" s="494"/>
     </row>
     <row r="400" ht="12.75" customHeight="1">
-      <c r="E400" s="493"/>
+      <c r="E400" s="494"/>
     </row>
     <row r="401" ht="12.75" customHeight="1">
-      <c r="E401" s="493"/>
+      <c r="E401" s="494"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
-      <c r="E402" s="493"/>
+      <c r="E402" s="494"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
-      <c r="E403" s="493"/>
+      <c r="E403" s="494"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
-      <c r="E404" s="493"/>
+      <c r="E404" s="494"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
-      <c r="E405" s="493"/>
+      <c r="E405" s="494"/>
     </row>
     <row r="406" ht="12.75" customHeight="1">
-      <c r="E406" s="493"/>
+      <c r="E406" s="494"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
-      <c r="E407" s="493"/>
+      <c r="E407" s="494"/>
     </row>
     <row r="408" ht="12.75" customHeight="1">
-      <c r="E408" s="493"/>
+      <c r="E408" s="494"/>
     </row>
     <row r="409" ht="12.75" customHeight="1">
-      <c r="E409" s="493"/>
+      <c r="E409" s="494"/>
     </row>
     <row r="410" ht="12.75" customHeight="1">
-      <c r="E410" s="493"/>
+      <c r="E410" s="494"/>
     </row>
     <row r="411" ht="12.75" customHeight="1">
-      <c r="E411" s="493"/>
+      <c r="E411" s="494"/>
     </row>
     <row r="412" ht="12.75" customHeight="1">
-      <c r="E412" s="493"/>
+      <c r="E412" s="494"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="E413" s="493"/>
+      <c r="E413" s="494"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
-      <c r="E414" s="493"/>
+      <c r="E414" s="494"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
-      <c r="E415" s="493"/>
+      <c r="E415" s="494"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
-      <c r="E416" s="493"/>
+      <c r="E416" s="494"/>
     </row>
     <row r="417" ht="12.75" customHeight="1">
-      <c r="E417" s="493"/>
+      <c r="E417" s="494"/>
     </row>
     <row r="418" ht="12.75" customHeight="1">
-      <c r="E418" s="493"/>
+      <c r="E418" s="494"/>
     </row>
     <row r="419" ht="12.75" customHeight="1">
-      <c r="E419" s="493"/>
+      <c r="E419" s="494"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
-      <c r="E420" s="493"/>
+      <c r="E420" s="494"/>
     </row>
     <row r="421" ht="12.75" customHeight="1">
-      <c r="E421" s="493"/>
+      <c r="E421" s="494"/>
     </row>
     <row r="422" ht="12.75" customHeight="1">
-      <c r="E422" s="493"/>
+      <c r="E422" s="494"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
-      <c r="E423" s="493"/>
+      <c r="E423" s="494"/>
     </row>
     <row r="424" ht="12.75" customHeight="1">
-      <c r="E424" s="493"/>
+      <c r="E424" s="494"/>
     </row>
     <row r="425" ht="12.75" customHeight="1">
-      <c r="E425" s="493"/>
+      <c r="E425" s="494"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="E426" s="493"/>
+      <c r="E426" s="494"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
-      <c r="E427" s="493"/>
+      <c r="E427" s="494"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
-      <c r="E428" s="493"/>
+      <c r="E428" s="494"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
-      <c r="E429" s="493"/>
+      <c r="E429" s="494"/>
     </row>
     <row r="430" ht="12.75" customHeight="1">
-      <c r="E430" s="493"/>
+      <c r="E430" s="494"/>
     </row>
     <row r="431" ht="12.75" customHeight="1">
-      <c r="E431" s="493"/>
+      <c r="E431" s="494"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="E432" s="493"/>
+      <c r="E432" s="494"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
-      <c r="E433" s="493"/>
+      <c r="E433" s="494"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
-      <c r="E434" s="493"/>
+      <c r="E434" s="494"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
-      <c r="E435" s="493"/>
+      <c r="E435" s="494"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
-      <c r="E436" s="493"/>
+      <c r="E436" s="494"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="E437" s="493"/>
+      <c r="E437" s="494"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
-      <c r="E438" s="493"/>
+      <c r="E438" s="494"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
-      <c r="E439" s="493"/>
+      <c r="E439" s="494"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
-      <c r="E440" s="493"/>
+      <c r="E440" s="494"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
-      <c r="E441" s="493"/>
+      <c r="E441" s="494"/>
     </row>
     <row r="442" ht="12.75" customHeight="1">
-      <c r="E442" s="493"/>
+      <c r="E442" s="494"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
-      <c r="E443" s="493"/>
+      <c r="E443" s="494"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
-      <c r="E444" s="493"/>
+      <c r="E444" s="494"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
-      <c r="E445" s="493"/>
+      <c r="E445" s="494"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
-      <c r="E446" s="493"/>
+      <c r="E446" s="494"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
-      <c r="E447" s="493"/>
+      <c r="E447" s="494"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
-      <c r="E448" s="493"/>
+      <c r="E448" s="494"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="E449" s="493"/>
+      <c r="E449" s="494"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
-      <c r="E450" s="493"/>
+      <c r="E450" s="494"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="E451" s="493"/>
+      <c r="E451" s="494"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="E452" s="493"/>
+      <c r="E452" s="494"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
-      <c r="E453" s="493"/>
+      <c r="E453" s="494"/>
     </row>
     <row r="454" ht="12.75" customHeight="1">
-      <c r="E454" s="493"/>
+      <c r="E454" s="494"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
-      <c r="E455" s="493"/>
+      <c r="E455" s="494"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
-      <c r="E456" s="493"/>
+      <c r="E456" s="494"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
-      <c r="E457" s="493"/>
+      <c r="E457" s="494"/>
     </row>
     <row r="458" ht="12.75" customHeight="1">
-      <c r="E458" s="493"/>
+      <c r="E458" s="494"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
-      <c r="E459" s="493"/>
+      <c r="E459" s="494"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="E460" s="493"/>
+      <c r="E460" s="494"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="E461" s="493"/>
+      <c r="E461" s="494"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
-      <c r="E462" s="493"/>
+      <c r="E462" s="494"/>
     </row>
     <row r="463" ht="12.75" customHeight="1">
-      <c r="E463" s="493"/>
+      <c r="E463" s="494"/>
     </row>
     <row r="464" ht="12.75" customHeight="1">
-      <c r="E464" s="493"/>
+      <c r="E464" s="494"/>
     </row>
     <row r="465" ht="12.75" customHeight="1">
-      <c r="E465" s="493"/>
+      <c r="E465" s="494"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
-      <c r="E466" s="493"/>
+      <c r="E466" s="494"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
-      <c r="E467" s="493"/>
+      <c r="E467" s="494"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
-      <c r="E468" s="493"/>
+      <c r="E468" s="494"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
-      <c r="E469" s="493"/>
+      <c r="E469" s="494"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
-      <c r="E470" s="493"/>
+      <c r="E470" s="494"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
-      <c r="E471" s="493"/>
+      <c r="E471" s="494"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
-      <c r="E472" s="493"/>
+      <c r="E472" s="494"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
-      <c r="E473" s="493"/>
+      <c r="E473" s="494"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
-      <c r="E474" s="493"/>
+      <c r="E474" s="494"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
-      <c r="E475" s="493"/>
+      <c r="E475" s="494"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
-      <c r="E476" s="493"/>
+      <c r="E476" s="494"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
-      <c r="E477" s="493"/>
+      <c r="E477" s="494"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
-      <c r="E478" s="493"/>
+      <c r="E478" s="494"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
-      <c r="E479" s="493"/>
+      <c r="E479" s="494"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
-      <c r="E480" s="493"/>
+      <c r="E480" s="494"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
-      <c r="E481" s="493"/>
+      <c r="E481" s="494"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
-      <c r="E482" s="493"/>
+      <c r="E482" s="494"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
-      <c r="E483" s="493"/>
+      <c r="E483" s="494"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
-      <c r="E484" s="493"/>
+      <c r="E484" s="494"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
-      <c r="E485" s="493"/>
+      <c r="E485" s="494"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
-      <c r="E486" s="493"/>
+      <c r="E486" s="494"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
-      <c r="E487" s="493"/>
+      <c r="E487" s="494"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
-      <c r="E488" s="493"/>
+      <c r="E488" s="494"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
-      <c r="E489" s="493"/>
+      <c r="E489" s="494"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
-      <c r="E490" s="493"/>
+      <c r="E490" s="494"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
-      <c r="E491" s="493"/>
+      <c r="E491" s="494"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
-      <c r="E492" s="493"/>
+      <c r="E492" s="494"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
-      <c r="E493" s="493"/>
+      <c r="E493" s="494"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
-      <c r="E494" s="493"/>
+      <c r="E494" s="494"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
-      <c r="E495" s="493"/>
+      <c r="E495" s="494"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
-      <c r="E496" s="493"/>
+      <c r="E496" s="494"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
-      <c r="E497" s="493"/>
+      <c r="E497" s="494"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
-      <c r="E498" s="493"/>
+      <c r="E498" s="494"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
-      <c r="E499" s="493"/>
+      <c r="E499" s="494"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
-      <c r="E500" s="493"/>
+      <c r="E500" s="494"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
-      <c r="E501" s="493"/>
+      <c r="E501" s="494"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
-      <c r="E502" s="493"/>
+      <c r="E502" s="494"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
-      <c r="E503" s="493"/>
+      <c r="E503" s="494"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
-      <c r="E504" s="493"/>
+      <c r="E504" s="494"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
-      <c r="E505" s="493"/>
+      <c r="E505" s="494"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
-      <c r="E506" s="493"/>
+      <c r="E506" s="494"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
-      <c r="E507" s="493"/>
+      <c r="E507" s="494"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
-      <c r="E508" s="493"/>
+      <c r="E508" s="494"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
-      <c r="E509" s="493"/>
+      <c r="E509" s="494"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
-      <c r="E510" s="493"/>
+      <c r="E510" s="494"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
-      <c r="E511" s="493"/>
+      <c r="E511" s="494"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
-      <c r="E512" s="493"/>
+      <c r="E512" s="494"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
-      <c r="E513" s="493"/>
+      <c r="E513" s="494"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
-      <c r="E514" s="493"/>
+      <c r="E514" s="494"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="E515" s="493"/>
+      <c r="E515" s="494"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="E516" s="493"/>
+      <c r="E516" s="494"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
-      <c r="E517" s="493"/>
+      <c r="E517" s="494"/>
     </row>
     <row r="518" ht="12.75" customHeight="1">
-      <c r="E518" s="493"/>
+      <c r="E518" s="494"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
-      <c r="E519" s="493"/>
+      <c r="E519" s="494"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
-      <c r="E520" s="493"/>
+      <c r="E520" s="494"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
-      <c r="E521" s="493"/>
+      <c r="E521" s="494"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
-      <c r="E522" s="493"/>
+      <c r="E522" s="494"/>
     </row>
     <row r="523" ht="12.75" customHeight="1">
-      <c r="E523" s="493"/>
+      <c r="E523" s="494"/>
     </row>
     <row r="524" ht="12.75" customHeight="1">
-      <c r="E524" s="493"/>
+      <c r="E524" s="494"/>
     </row>
     <row r="525" ht="12.75" customHeight="1">
-      <c r="E525" s="493"/>
+      <c r="E525" s="494"/>
     </row>
     <row r="526" ht="12.75" customHeight="1">
-      <c r="E526" s="493"/>
+      <c r="E526" s="494"/>
     </row>
     <row r="527" ht="12.75" customHeight="1">
-      <c r="E527" s="493"/>
+      <c r="E527" s="494"/>
     </row>
     <row r="528" ht="12.75" customHeight="1">
-      <c r="E528" s="493"/>
+      <c r="E528" s="494"/>
     </row>
     <row r="529" ht="12.75" customHeight="1">
-      <c r="E529" s="493"/>
+      <c r="E529" s="494"/>
     </row>
     <row r="530" ht="12.75" customHeight="1">
-      <c r="E530" s="493"/>
+      <c r="E530" s="494"/>
     </row>
     <row r="531" ht="12.75" customHeight="1">
-      <c r="E531" s="493"/>
+      <c r="E531" s="494"/>
     </row>
     <row r="532" ht="12.75" customHeight="1">
-      <c r="E532" s="493"/>
+      <c r="E532" s="494"/>
     </row>
     <row r="533" ht="12.75" customHeight="1">
-      <c r="E533" s="493"/>
+      <c r="E533" s="494"/>
     </row>
     <row r="534" ht="12.75" customHeight="1">
-      <c r="E534" s="493"/>
+      <c r="E534" s="494"/>
     </row>
     <row r="535" ht="12.75" customHeight="1">
-      <c r="E535" s="493"/>
+      <c r="E535" s="494"/>
     </row>
     <row r="536" ht="12.75" customHeight="1">
-      <c r="E536" s="493"/>
+      <c r="E536" s="494"/>
     </row>
     <row r="537" ht="12.75" customHeight="1">
-      <c r="E537" s="493"/>
+      <c r="E537" s="494"/>
     </row>
     <row r="538" ht="12.75" customHeight="1">
-      <c r="E538" s="493"/>
+      <c r="E538" s="494"/>
     </row>
     <row r="539" ht="12.75" customHeight="1">
-      <c r="E539" s="493"/>
+      <c r="E539" s="494"/>
     </row>
     <row r="540" ht="12.75" customHeight="1">
-      <c r="E540" s="493"/>
+      <c r="E540" s="494"/>
     </row>
     <row r="541" ht="12.75" customHeight="1">
-      <c r="E541" s="493"/>
+      <c r="E541" s="494"/>
     </row>
     <row r="542" ht="12.75" customHeight="1">
-      <c r="E542" s="493"/>
+      <c r="E542" s="494"/>
     </row>
     <row r="543" ht="12.75" customHeight="1">
-      <c r="E543" s="493"/>
+      <c r="E543" s="494"/>
     </row>
     <row r="544" ht="12.75" customHeight="1">
-      <c r="E544" s="493"/>
+      <c r="E544" s="494"/>
     </row>
     <row r="545" ht="12.75" customHeight="1">
-      <c r="E545" s="493"/>
+      <c r="E545" s="494"/>
     </row>
     <row r="546" ht="12.75" customHeight="1">
-      <c r="E546" s="493"/>
+      <c r="E546" s="494"/>
     </row>
     <row r="547" ht="12.75" customHeight="1">
-      <c r="E547" s="493"/>
+      <c r="E547" s="494"/>
     </row>
     <row r="548" ht="12.75" customHeight="1">
-      <c r="E548" s="493"/>
+      <c r="E548" s="494"/>
     </row>
     <row r="549" ht="12.75" customHeight="1">
-      <c r="E549" s="493"/>
+      <c r="E549" s="494"/>
     </row>
     <row r="550" ht="12.75" customHeight="1">
-      <c r="E550" s="493"/>
+      <c r="E550" s="494"/>
     </row>
     <row r="551" ht="12.75" customHeight="1">
-      <c r="E551" s="493"/>
+      <c r="E551" s="494"/>
     </row>
     <row r="552" ht="12.75" customHeight="1">
-      <c r="E552" s="493"/>
+      <c r="E552" s="494"/>
     </row>
     <row r="553" ht="12.75" customHeight="1">
-      <c r="E553" s="493"/>
+      <c r="E553" s="494"/>
     </row>
     <row r="554" ht="12.75" customHeight="1">
-      <c r="E554" s="493"/>
+      <c r="E554" s="494"/>
     </row>
     <row r="555" ht="12.75" customHeight="1">
-      <c r="E555" s="493"/>
+      <c r="E555" s="494"/>
     </row>
     <row r="556" ht="12.75" customHeight="1">
-      <c r="E556" s="493"/>
+      <c r="E556" s="494"/>
     </row>
     <row r="557" ht="12.75" customHeight="1">
-      <c r="E557" s="493"/>
+      <c r="E557" s="494"/>
     </row>
     <row r="558" ht="12.75" customHeight="1">
-      <c r="E558" s="493"/>
+      <c r="E558" s="494"/>
     </row>
     <row r="559" ht="12.75" customHeight="1">
-      <c r="E559" s="493"/>
+      <c r="E559" s="494"/>
     </row>
     <row r="560" ht="12.75" customHeight="1">
-      <c r="E560" s="493"/>
+      <c r="E560" s="494"/>
     </row>
     <row r="561" ht="12.75" customHeight="1">
-      <c r="E561" s="493"/>
+      <c r="E561" s="494"/>
     </row>
     <row r="562" ht="12.75" customHeight="1">
-      <c r="E562" s="493"/>
+      <c r="E562" s="494"/>
     </row>
     <row r="563" ht="12.75" customHeight="1">
-      <c r="E563" s="493"/>
+      <c r="E563" s="494"/>
     </row>
     <row r="564" ht="12.75" customHeight="1">
-      <c r="E564" s="493"/>
+      <c r="E564" s="494"/>
     </row>
     <row r="565" ht="12.75" customHeight="1">
-      <c r="E565" s="493"/>
+      <c r="E565" s="494"/>
     </row>
     <row r="566" ht="12.75" customHeight="1">
-      <c r="E566" s="493"/>
+      <c r="E566" s="494"/>
     </row>
     <row r="567" ht="12.75" customHeight="1">
-      <c r="E567" s="493"/>
+      <c r="E567" s="494"/>
     </row>
     <row r="568" ht="12.75" customHeight="1">
-      <c r="E568" s="493"/>
+      <c r="E568" s="494"/>
     </row>
     <row r="569" ht="12.75" customHeight="1">
-      <c r="E569" s="493"/>
+      <c r="E569" s="494"/>
     </row>
     <row r="570" ht="12.75" customHeight="1">
-      <c r="E570" s="493"/>
+      <c r="E570" s="494"/>
     </row>
     <row r="571" ht="12.75" customHeight="1">
-      <c r="E571" s="493"/>
+      <c r="E571" s="494"/>
     </row>
     <row r="572" ht="12.75" customHeight="1">
-      <c r="E572" s="493"/>
+      <c r="E572" s="494"/>
     </row>
     <row r="573" ht="12.75" customHeight="1">
-      <c r="E573" s="493"/>
+      <c r="E573" s="494"/>
     </row>
     <row r="574" ht="12.75" customHeight="1">
-      <c r="E574" s="493"/>
+      <c r="E574" s="494"/>
     </row>
     <row r="575" ht="12.75" customHeight="1">
-      <c r="E575" s="493"/>
+      <c r="E575" s="494"/>
     </row>
     <row r="576" ht="12.75" customHeight="1">
-      <c r="E576" s="493"/>
+      <c r="E576" s="494"/>
     </row>
     <row r="577" ht="12.75" customHeight="1">
-      <c r="E577" s="493"/>
+      <c r="E577" s="494"/>
     </row>
     <row r="578" ht="12.75" customHeight="1">
-      <c r="E578" s="493"/>
+      <c r="E578" s="494"/>
     </row>
     <row r="579" ht="12.75" customHeight="1">
-      <c r="E579" s="493"/>
+      <c r="E579" s="494"/>
     </row>
     <row r="580" ht="12.75" customHeight="1">
-      <c r="E580" s="493"/>
+      <c r="E580" s="494"/>
     </row>
     <row r="581" ht="12.75" customHeight="1">
-      <c r="E581" s="493"/>
+      <c r="E581" s="494"/>
     </row>
     <row r="582" ht="12.75" customHeight="1">
-      <c r="E582" s="493"/>
+      <c r="E582" s="494"/>
     </row>
     <row r="583" ht="12.75" customHeight="1">
-      <c r="E583" s="493"/>
+      <c r="E583" s="494"/>
     </row>
     <row r="584" ht="12.75" customHeight="1">
-      <c r="E584" s="493"/>
+      <c r="E584" s="494"/>
     </row>
     <row r="585" ht="12.75" customHeight="1">
-      <c r="E585" s="493"/>
+      <c r="E585" s="494"/>
     </row>
     <row r="586" ht="12.75" customHeight="1">
-      <c r="E586" s="493"/>
+      <c r="E586" s="494"/>
     </row>
     <row r="587" ht="12.75" customHeight="1">
-      <c r="E587" s="493"/>
+      <c r="E587" s="494"/>
     </row>
     <row r="588" ht="12.75" customHeight="1">
-      <c r="E588" s="493"/>
+      <c r="E588" s="494"/>
     </row>
     <row r="589" ht="12.75" customHeight="1">
-      <c r="E589" s="493"/>
+      <c r="E589" s="494"/>
     </row>
     <row r="590" ht="12.75" customHeight="1">
-      <c r="E590" s="493"/>
+      <c r="E590" s="494"/>
     </row>
     <row r="591" ht="12.75" customHeight="1">
-      <c r="E591" s="493"/>
+      <c r="E591" s="494"/>
     </row>
     <row r="592" ht="12.75" customHeight="1">
-      <c r="E592" s="493"/>
+      <c r="E592" s="494"/>
     </row>
     <row r="593" ht="12.75" customHeight="1">
-      <c r="E593" s="493"/>
+      <c r="E593" s="494"/>
     </row>
     <row r="594" ht="12.75" customHeight="1">
-      <c r="E594" s="493"/>
+      <c r="E594" s="494"/>
     </row>
     <row r="595" ht="12.75" customHeight="1">
-      <c r="E595" s="493"/>
+      <c r="E595" s="494"/>
     </row>
     <row r="596" ht="12.75" customHeight="1">
-      <c r="E596" s="493"/>
+      <c r="E596" s="494"/>
     </row>
     <row r="597" ht="12.75" customHeight="1">
-      <c r="E597" s="493"/>
+      <c r="E597" s="494"/>
     </row>
     <row r="598" ht="12.75" customHeight="1">
-      <c r="E598" s="493"/>
+      <c r="E598" s="494"/>
     </row>
     <row r="599" ht="12.75" customHeight="1">
-      <c r="E599" s="493"/>
+      <c r="E599" s="494"/>
     </row>
     <row r="600" ht="12.75" customHeight="1">
-      <c r="E600" s="493"/>
+      <c r="E600" s="494"/>
     </row>
     <row r="601" ht="12.75" customHeight="1">
-      <c r="E601" s="493"/>
+      <c r="E601" s="494"/>
     </row>
     <row r="602" ht="12.75" customHeight="1">
-      <c r="E602" s="493"/>
+      <c r="E602" s="494"/>
     </row>
     <row r="603" ht="12.75" customHeight="1">
-      <c r="E603" s="493"/>
+      <c r="E603" s="494"/>
     </row>
     <row r="604" ht="12.75" customHeight="1">
-      <c r="E604" s="493"/>
+      <c r="E604" s="494"/>
     </row>
     <row r="605" ht="12.75" customHeight="1">
-      <c r="E605" s="493"/>
+      <c r="E605" s="494"/>
     </row>
     <row r="606" ht="12.75" customHeight="1">
-      <c r="E606" s="493"/>
+      <c r="E606" s="494"/>
     </row>
     <row r="607" ht="12.75" customHeight="1">
-      <c r="E607" s="493"/>
+      <c r="E607" s="494"/>
     </row>
     <row r="608" ht="12.75" customHeight="1">
-      <c r="E608" s="493"/>
+      <c r="E608" s="494"/>
     </row>
     <row r="609" ht="12.75" customHeight="1">
-      <c r="E609" s="493"/>
+      <c r="E609" s="494"/>
     </row>
     <row r="610" ht="12.75" customHeight="1">
-      <c r="E610" s="493"/>
+      <c r="E610" s="494"/>
     </row>
     <row r="611" ht="12.75" customHeight="1">
-      <c r="E611" s="493"/>
+      <c r="E611" s="494"/>
     </row>
     <row r="612" ht="12.75" customHeight="1">
-      <c r="E612" s="493"/>
+      <c r="E612" s="494"/>
     </row>
     <row r="613" ht="12.75" customHeight="1">
-      <c r="E613" s="493"/>
+      <c r="E613" s="494"/>
     </row>
     <row r="614" ht="12.75" customHeight="1">
-      <c r="E614" s="493"/>
+      <c r="E614" s="494"/>
     </row>
     <row r="615" ht="12.75" customHeight="1">
-      <c r="E615" s="493"/>
+      <c r="E615" s="494"/>
     </row>
     <row r="616" ht="12.75" customHeight="1">
-      <c r="E616" s="493"/>
+      <c r="E616" s="494"/>
     </row>
     <row r="617" ht="12.75" customHeight="1">
-      <c r="E617" s="493"/>
+      <c r="E617" s="494"/>
     </row>
     <row r="618" ht="12.75" customHeight="1">
-      <c r="E618" s="493"/>
+      <c r="E618" s="494"/>
     </row>
     <row r="619" ht="12.75" customHeight="1">
-      <c r="E619" s="493"/>
+      <c r="E619" s="494"/>
     </row>
     <row r="620" ht="12.75" customHeight="1">
-      <c r="E620" s="493"/>
+      <c r="E620" s="494"/>
     </row>
     <row r="621" ht="12.75" customHeight="1">
-      <c r="E621" s="493"/>
+      <c r="E621" s="494"/>
     </row>
     <row r="622" ht="12.75" customHeight="1">
-      <c r="E622" s="493"/>
+      <c r="E622" s="494"/>
     </row>
     <row r="623" ht="12.75" customHeight="1">
-      <c r="E623" s="493"/>
+      <c r="E623" s="494"/>
     </row>
     <row r="624" ht="12.75" customHeight="1">
-      <c r="E624" s="493"/>
+      <c r="E624" s="494"/>
     </row>
     <row r="625" ht="12.75" customHeight="1">
-      <c r="E625" s="493"/>
+      <c r="E625" s="494"/>
     </row>
     <row r="626" ht="12.75" customHeight="1">
-      <c r="E626" s="493"/>
+      <c r="E626" s="494"/>
     </row>
     <row r="627" ht="12.75" customHeight="1">
-      <c r="E627" s="493"/>
+      <c r="E627" s="494"/>
     </row>
     <row r="628" ht="12.75" customHeight="1">
-      <c r="E628" s="493"/>
+      <c r="E628" s="494"/>
     </row>
     <row r="629" ht="12.75" customHeight="1">
-      <c r="E629" s="493"/>
+      <c r="E629" s="494"/>
     </row>
     <row r="630" ht="12.75" customHeight="1">
-      <c r="E630" s="493"/>
+      <c r="E630" s="494"/>
     </row>
     <row r="631" ht="12.75" customHeight="1">
-      <c r="E631" s="493"/>
+      <c r="E631" s="494"/>
     </row>
     <row r="632" ht="12.75" customHeight="1">
-      <c r="E632" s="493"/>
+      <c r="E632" s="494"/>
     </row>
     <row r="633" ht="12.75" customHeight="1">
-      <c r="E633" s="493"/>
+      <c r="E633" s="494"/>
     </row>
     <row r="634" ht="12.75" customHeight="1">
-      <c r="E634" s="493"/>
+      <c r="E634" s="494"/>
     </row>
     <row r="635" ht="12.75" customHeight="1">
-      <c r="E635" s="493"/>
+      <c r="E635" s="494"/>
     </row>
     <row r="636" ht="12.75" customHeight="1">
-      <c r="E636" s="493"/>
+      <c r="E636" s="494"/>
     </row>
     <row r="637" ht="12.75" customHeight="1">
-      <c r="E637" s="493"/>
+      <c r="E637" s="494"/>
     </row>
     <row r="638" ht="12.75" customHeight="1">
-      <c r="E638" s="493"/>
+      <c r="E638" s="494"/>
     </row>
     <row r="639" ht="12.75" customHeight="1">
-      <c r="E639" s="493"/>
+      <c r="E639" s="494"/>
     </row>
     <row r="640" ht="12.75" customHeight="1">
-      <c r="E640" s="493"/>
+      <c r="E640" s="494"/>
     </row>
     <row r="641" ht="12.75" customHeight="1">
-      <c r="E641" s="493"/>
+      <c r="E641" s="494"/>
     </row>
     <row r="642" ht="12.75" customHeight="1">
-      <c r="E642" s="493"/>
+      <c r="E642" s="494"/>
     </row>
     <row r="643" ht="12.75" customHeight="1">
-      <c r="E643" s="493"/>
+      <c r="E643" s="494"/>
     </row>
     <row r="644" ht="12.75" customHeight="1">
-      <c r="E644" s="493"/>
+      <c r="E644" s="494"/>
     </row>
     <row r="645" ht="12.75" customHeight="1">
-      <c r="E645" s="493"/>
+      <c r="E645" s="494"/>
     </row>
     <row r="646" ht="12.75" customHeight="1">
-      <c r="E646" s="493"/>
+      <c r="E646" s="494"/>
     </row>
     <row r="647" ht="12.75" customHeight="1">
-      <c r="E647" s="493"/>
+      <c r="E647" s="494"/>
     </row>
     <row r="648" ht="12.75" customHeight="1">
-      <c r="E648" s="493"/>
+      <c r="E648" s="494"/>
     </row>
     <row r="649" ht="12.75" customHeight="1">
-      <c r="E649" s="493"/>
+      <c r="E649" s="494"/>
     </row>
     <row r="650" ht="12.75" customHeight="1">
-      <c r="E650" s="493"/>
+      <c r="E650" s="494"/>
     </row>
     <row r="651" ht="12.75" customHeight="1">
-      <c r="E651" s="493"/>
+      <c r="E651" s="494"/>
     </row>
     <row r="652" ht="12.75" customHeight="1">
-      <c r="E652" s="493"/>
+      <c r="E652" s="494"/>
     </row>
     <row r="653" ht="12.75" customHeight="1">
-      <c r="E653" s="493"/>
+      <c r="E653" s="494"/>
     </row>
     <row r="654" ht="12.75" customHeight="1">
-      <c r="E654" s="493"/>
+      <c r="E654" s="494"/>
     </row>
     <row r="655" ht="12.75" customHeight="1">
-      <c r="E655" s="493"/>
+      <c r="E655" s="494"/>
     </row>
     <row r="656" ht="12.75" customHeight="1">
-      <c r="E656" s="493"/>
+      <c r="E656" s="494"/>
     </row>
     <row r="657" ht="12.75" customHeight="1">
-      <c r="E657" s="493"/>
+      <c r="E657" s="494"/>
     </row>
     <row r="658" ht="12.75" customHeight="1">
-      <c r="E658" s="493"/>
+      <c r="E658" s="494"/>
     </row>
     <row r="659" ht="12.75" customHeight="1">
-      <c r="E659" s="493"/>
+      <c r="E659" s="494"/>
     </row>
     <row r="660" ht="12.75" customHeight="1">
-      <c r="E660" s="493"/>
+      <c r="E660" s="494"/>
     </row>
     <row r="661" ht="12.75" customHeight="1">
-      <c r="E661" s="493"/>
+      <c r="E661" s="494"/>
     </row>
     <row r="662" ht="12.75" customHeight="1">
-      <c r="E662" s="493"/>
+      <c r="E662" s="494"/>
     </row>
     <row r="663" ht="12.75" customHeight="1">
-      <c r="E663" s="493"/>
+      <c r="E663" s="494"/>
     </row>
     <row r="664" ht="12.75" customHeight="1">
-      <c r="E664" s="493"/>
+      <c r="E664" s="494"/>
     </row>
     <row r="665" ht="12.75" customHeight="1">
-      <c r="E665" s="493"/>
+      <c r="E665" s="494"/>
     </row>
     <row r="666" ht="12.75" customHeight="1">
-      <c r="E666" s="493"/>
+      <c r="E666" s="494"/>
     </row>
     <row r="667" ht="12.75" customHeight="1">
-      <c r="E667" s="493"/>
+      <c r="E667" s="494"/>
     </row>
     <row r="668" ht="12.75" customHeight="1">
-      <c r="E668" s="493"/>
+      <c r="E668" s="494"/>
     </row>
     <row r="669" ht="12.75" customHeight="1">
-      <c r="E669" s="493"/>
+      <c r="E669" s="494"/>
     </row>
     <row r="670" ht="12.75" customHeight="1">
-      <c r="E670" s="493"/>
+      <c r="E670" s="494"/>
     </row>
     <row r="671" ht="12.75" customHeight="1">
-      <c r="E671" s="493"/>
+      <c r="E671" s="494"/>
     </row>
     <row r="672" ht="12.75" customHeight="1">
-      <c r="E672" s="493"/>
+      <c r="E672" s="494"/>
     </row>
     <row r="673" ht="12.75" customHeight="1">
-      <c r="E673" s="493"/>
+      <c r="E673" s="494"/>
     </row>
     <row r="674" ht="12.75" customHeight="1">
-      <c r="E674" s="493"/>
+      <c r="E674" s="494"/>
     </row>
     <row r="675" ht="12.75" customHeight="1">
-      <c r="E675" s="493"/>
+      <c r="E675" s="494"/>
     </row>
     <row r="676" ht="12.75" customHeight="1">
-      <c r="E676" s="493"/>
+      <c r="E676" s="494"/>
     </row>
     <row r="677" ht="12.75" customHeight="1">
-      <c r="E677" s="493"/>
+      <c r="E677" s="494"/>
     </row>
     <row r="678" ht="12.75" customHeight="1">
-      <c r="E678" s="493"/>
+      <c r="E678" s="494"/>
     </row>
     <row r="679" ht="12.75" customHeight="1">
-      <c r="E679" s="493"/>
+      <c r="E679" s="494"/>
     </row>
     <row r="680" ht="12.75" customHeight="1">
-      <c r="E680" s="493"/>
+      <c r="E680" s="494"/>
     </row>
     <row r="681" ht="12.75" customHeight="1">
-      <c r="E681" s="493"/>
+      <c r="E681" s="494"/>
     </row>
     <row r="682" ht="12.75" customHeight="1">
-      <c r="E682" s="493"/>
+      <c r="E682" s="494"/>
     </row>
     <row r="683" ht="12.75" customHeight="1">
-      <c r="E683" s="493"/>
+      <c r="E683" s="494"/>
     </row>
     <row r="684" ht="12.75" customHeight="1">
-      <c r="E684" s="493"/>
+      <c r="E684" s="494"/>
     </row>
     <row r="685" ht="12.75" customHeight="1">
-      <c r="E685" s="493"/>
+      <c r="E685" s="494"/>
     </row>
     <row r="686" ht="12.75" customHeight="1">
-      <c r="E686" s="493"/>
+      <c r="E686" s="494"/>
     </row>
     <row r="687" ht="12.75" customHeight="1">
-      <c r="E687" s="493"/>
+      <c r="E687" s="494"/>
     </row>
     <row r="688" ht="12.75" customHeight="1">
-      <c r="E688" s="493"/>
+      <c r="E688" s="494"/>
     </row>
     <row r="689" ht="12.75" customHeight="1">
-      <c r="E689" s="493"/>
+      <c r="E689" s="494"/>
     </row>
     <row r="690" ht="12.75" customHeight="1">
-      <c r="E690" s="493"/>
+      <c r="E690" s="494"/>
     </row>
     <row r="691" ht="12.75" customHeight="1">
-      <c r="E691" s="493"/>
+      <c r="E691" s="494"/>
     </row>
     <row r="692" ht="12.75" customHeight="1">
-      <c r="E692" s="493"/>
+      <c r="E692" s="494"/>
     </row>
     <row r="693" ht="12.75" customHeight="1">
-      <c r="E693" s="493"/>
+      <c r="E693" s="494"/>
     </row>
     <row r="694" ht="12.75" customHeight="1">
-      <c r="E694" s="493"/>
+      <c r="E694" s="494"/>
     </row>
     <row r="695" ht="12.75" customHeight="1">
-      <c r="E695" s="493"/>
+      <c r="E695" s="494"/>
     </row>
     <row r="696" ht="12.75" customHeight="1">
-      <c r="E696" s="493"/>
+      <c r="E696" s="494"/>
     </row>
     <row r="697" ht="12.75" customHeight="1">
-      <c r="E697" s="493"/>
+      <c r="E697" s="494"/>
     </row>
     <row r="698" ht="12.75" customHeight="1">
-      <c r="E698" s="493"/>
+      <c r="E698" s="494"/>
     </row>
     <row r="699" ht="12.75" customHeight="1">
-      <c r="E699" s="493"/>
+      <c r="E699" s="494"/>
     </row>
     <row r="700" ht="12.75" customHeight="1">
-      <c r="E700" s="493"/>
+      <c r="E700" s="494"/>
     </row>
     <row r="701" ht="12.75" customHeight="1">
-      <c r="E701" s="493"/>
+      <c r="E701" s="494"/>
     </row>
     <row r="702" ht="12.75" customHeight="1">
-      <c r="E702" s="493"/>
+      <c r="E702" s="494"/>
     </row>
     <row r="703" ht="12.75" customHeight="1">
-      <c r="E703" s="493"/>
+      <c r="E703" s="494"/>
     </row>
     <row r="704" ht="12.75" customHeight="1">
-      <c r="E704" s="493"/>
+      <c r="E704" s="494"/>
     </row>
     <row r="705" ht="12.75" customHeight="1">
-      <c r="E705" s="493"/>
+      <c r="E705" s="494"/>
     </row>
     <row r="706" ht="12.75" customHeight="1">
-      <c r="E706" s="493"/>
+      <c r="E706" s="494"/>
     </row>
     <row r="707" ht="12.75" customHeight="1">
-      <c r="E707" s="493"/>
+      <c r="E707" s="494"/>
     </row>
     <row r="708" ht="12.75" customHeight="1">
-      <c r="E708" s="493"/>
+      <c r="E708" s="494"/>
     </row>
     <row r="709" ht="12.75" customHeight="1">
-      <c r="E709" s="493"/>
+      <c r="E709" s="494"/>
     </row>
     <row r="710" ht="12.75" customHeight="1">
-      <c r="E710" s="493"/>
+      <c r="E710" s="494"/>
     </row>
     <row r="711" ht="12.75" customHeight="1">
-      <c r="E711" s="493"/>
+      <c r="E711" s="494"/>
     </row>
     <row r="712" ht="12.75" customHeight="1">
-      <c r="E712" s="493"/>
+      <c r="E712" s="494"/>
     </row>
     <row r="713" ht="12.75" customHeight="1">
-      <c r="E713" s="493"/>
+      <c r="E713" s="494"/>
     </row>
     <row r="714" ht="12.75" customHeight="1">
-      <c r="E714" s="493"/>
+      <c r="E714" s="494"/>
     </row>
     <row r="715" ht="12.75" customHeight="1">
-      <c r="E715" s="493"/>
+      <c r="E715" s="494"/>
     </row>
     <row r="716" ht="12.75" customHeight="1">
-      <c r="E716" s="493"/>
+      <c r="E716" s="494"/>
     </row>
     <row r="717" ht="12.75" customHeight="1">
-      <c r="E717" s="493"/>
+      <c r="E717" s="494"/>
     </row>
     <row r="718" ht="12.75" customHeight="1">
-      <c r="E718" s="493"/>
+      <c r="E718" s="494"/>
     </row>
     <row r="719" ht="12.75" customHeight="1">
-      <c r="E719" s="493"/>
+      <c r="E719" s="494"/>
     </row>
     <row r="720" ht="12.75" customHeight="1">
-      <c r="E720" s="493"/>
+      <c r="E720" s="494"/>
     </row>
     <row r="721" ht="12.75" customHeight="1">
-      <c r="E721" s="493"/>
+      <c r="E721" s="494"/>
     </row>
     <row r="722" ht="12.75" customHeight="1">
-      <c r="E722" s="493"/>
+      <c r="E722" s="494"/>
     </row>
     <row r="723" ht="12.75" customHeight="1">
-      <c r="E723" s="493"/>
+      <c r="E723" s="494"/>
     </row>
     <row r="724" ht="12.75" customHeight="1">
-      <c r="E724" s="493"/>
+      <c r="E724" s="494"/>
     </row>
     <row r="725" ht="12.75" customHeight="1">
-      <c r="E725" s="493"/>
+      <c r="E725" s="494"/>
     </row>
     <row r="726" ht="12.75" customHeight="1">
-      <c r="E726" s="493"/>
+      <c r="E726" s="494"/>
     </row>
     <row r="727" ht="12.75" customHeight="1">
-      <c r="E727" s="493"/>
+      <c r="E727" s="494"/>
     </row>
     <row r="728" ht="12.75" customHeight="1">
-      <c r="E728" s="493"/>
+      <c r="E728" s="494"/>
     </row>
     <row r="729" ht="12.75" customHeight="1">
-      <c r="E729" s="493"/>
+      <c r="E729" s="494"/>
     </row>
     <row r="730" ht="12.75" customHeight="1">
-      <c r="E730" s="493"/>
+      <c r="E730" s="494"/>
     </row>
     <row r="731" ht="12.75" customHeight="1">
-      <c r="E731" s="493"/>
+      <c r="E731" s="494"/>
     </row>
     <row r="732" ht="12.75" customHeight="1">
-      <c r="E732" s="493"/>
+      <c r="E732" s="494"/>
     </row>
     <row r="733" ht="12.75" customHeight="1">
-      <c r="E733" s="493"/>
+      <c r="E733" s="494"/>
     </row>
     <row r="734" ht="12.75" customHeight="1">
-      <c r="E734" s="493"/>
+      <c r="E734" s="494"/>
     </row>
     <row r="735" ht="12.75" customHeight="1">
-      <c r="E735" s="493"/>
+      <c r="E735" s="494"/>
     </row>
     <row r="736" ht="12.75" customHeight="1">
-      <c r="E736" s="493"/>
+      <c r="E736" s="494"/>
     </row>
     <row r="737" ht="12.75" customHeight="1">
-      <c r="E737" s="493"/>
+      <c r="E737" s="494"/>
     </row>
     <row r="738" ht="12.75" customHeight="1">
-      <c r="E738" s="493"/>
+      <c r="E738" s="494"/>
     </row>
     <row r="739" ht="12.75" customHeight="1">
-      <c r="E739" s="493"/>
+      <c r="E739" s="494"/>
     </row>
     <row r="740" ht="12.75" customHeight="1">
-      <c r="E740" s="493"/>
+      <c r="E740" s="494"/>
     </row>
     <row r="741" ht="12.75" customHeight="1">
-      <c r="E741" s="493"/>
+      <c r="E741" s="494"/>
     </row>
     <row r="742" ht="12.75" customHeight="1">
-      <c r="E742" s="493"/>
+      <c r="E742" s="494"/>
     </row>
     <row r="743" ht="12.75" customHeight="1">
-      <c r="E743" s="493"/>
+      <c r="E743" s="494"/>
     </row>
     <row r="744" ht="12.75" customHeight="1">
-      <c r="E744" s="493"/>
+      <c r="E744" s="494"/>
     </row>
     <row r="745" ht="12.75" customHeight="1">
-      <c r="E745" s="493"/>
+      <c r="E745" s="494"/>
     </row>
     <row r="746" ht="12.75" customHeight="1">
-      <c r="E746" s="493"/>
+      <c r="E746" s="494"/>
     </row>
     <row r="747" ht="12.75" customHeight="1">
-      <c r="E747" s="493"/>
+      <c r="E747" s="494"/>
     </row>
     <row r="748" ht="12.75" customHeight="1">
-      <c r="E748" s="493"/>
+      <c r="E748" s="494"/>
     </row>
     <row r="749" ht="12.75" customHeight="1">
-      <c r="E749" s="493"/>
+      <c r="E749" s="494"/>
     </row>
     <row r="750" ht="12.75" customHeight="1">
-      <c r="E750" s="493"/>
+      <c r="E750" s="494"/>
     </row>
     <row r="751" ht="12.75" customHeight="1">
-      <c r="E751" s="493"/>
+      <c r="E751" s="494"/>
     </row>
     <row r="752" ht="12.75" customHeight="1">
-      <c r="E752" s="493"/>
+      <c r="E752" s="494"/>
     </row>
     <row r="753" ht="12.75" customHeight="1">
-      <c r="E753" s="493"/>
+      <c r="E753" s="494"/>
     </row>
     <row r="754" ht="12.75" customHeight="1">
-      <c r="E754" s="493"/>
+      <c r="E754" s="494"/>
     </row>
     <row r="755" ht="12.75" customHeight="1">
-      <c r="E755" s="493"/>
+      <c r="E755" s="494"/>
     </row>
     <row r="756" ht="12.75" customHeight="1">
-      <c r="E756" s="493"/>
+      <c r="E756" s="494"/>
     </row>
     <row r="757" ht="12.75" customHeight="1">
-      <c r="E757" s="493"/>
+      <c r="E757" s="494"/>
     </row>
     <row r="758" ht="12.75" customHeight="1">
-      <c r="E758" s="493"/>
+      <c r="E758" s="494"/>
     </row>
     <row r="759" ht="12.75" customHeight="1">
-      <c r="E759" s="493"/>
+      <c r="E759" s="494"/>
     </row>
     <row r="760" ht="12.75" customHeight="1">
-      <c r="E760" s="493"/>
+      <c r="E760" s="494"/>
     </row>
     <row r="761" ht="12.75" customHeight="1">
-      <c r="E761" s="493"/>
+      <c r="E761" s="494"/>
     </row>
     <row r="762" ht="12.75" customHeight="1">
-      <c r="E762" s="493"/>
+      <c r="E762" s="494"/>
     </row>
     <row r="763" ht="12.75" customHeight="1">
-      <c r="E763" s="493"/>
+      <c r="E763" s="494"/>
     </row>
     <row r="764" ht="12.75" customHeight="1">
-      <c r="E764" s="493"/>
+      <c r="E764" s="494"/>
     </row>
     <row r="765" ht="12.75" customHeight="1">
-      <c r="E765" s="493"/>
+      <c r="E765" s="494"/>
     </row>
     <row r="766" ht="12.75" customHeight="1">
-      <c r="E766" s="493"/>
+      <c r="E766" s="494"/>
     </row>
     <row r="767" ht="12.75" customHeight="1">
-      <c r="E767" s="493"/>
+      <c r="E767" s="494"/>
     </row>
     <row r="768" ht="12.75" customHeight="1">
-      <c r="E768" s="493"/>
+      <c r="E768" s="494"/>
     </row>
     <row r="769" ht="12.75" customHeight="1">
-      <c r="E769" s="493"/>
+      <c r="E769" s="494"/>
     </row>
     <row r="770" ht="12.75" customHeight="1">
-      <c r="E770" s="493"/>
+      <c r="E770" s="494"/>
     </row>
     <row r="771" ht="12.75" customHeight="1">
-      <c r="E771" s="493"/>
+      <c r="E771" s="494"/>
     </row>
     <row r="772" ht="12.75" customHeight="1">
-      <c r="E772" s="493"/>
+      <c r="E772" s="494"/>
     </row>
     <row r="773" ht="12.75" customHeight="1">
-      <c r="E773" s="493"/>
+      <c r="E773" s="494"/>
     </row>
     <row r="774" ht="12.75" customHeight="1">
-      <c r="E774" s="493"/>
+      <c r="E774" s="494"/>
     </row>
     <row r="775" ht="12.75" customHeight="1">
-      <c r="E775" s="493"/>
+      <c r="E775" s="494"/>
     </row>
     <row r="776" ht="12.75" customHeight="1">
-      <c r="E776" s="493"/>
+      <c r="E776" s="494"/>
     </row>
     <row r="777" ht="12.75" customHeight="1">
-      <c r="E777" s="493"/>
+      <c r="E777" s="494"/>
     </row>
     <row r="778" ht="12.75" customHeight="1">
-      <c r="E778" s="493"/>
+      <c r="E778" s="494"/>
     </row>
     <row r="779" ht="12.75" customHeight="1">
-      <c r="E779" s="493"/>
+      <c r="E779" s="494"/>
     </row>
     <row r="780" ht="12.75" customHeight="1">
-      <c r="E780" s="493"/>
+      <c r="E780" s="494"/>
     </row>
     <row r="781" ht="12.75" customHeight="1">
-      <c r="E781" s="493"/>
+      <c r="E781" s="494"/>
     </row>
     <row r="782" ht="12.75" customHeight="1">
-      <c r="E782" s="493"/>
+      <c r="E782" s="494"/>
     </row>
     <row r="783" ht="12.75" customHeight="1">
-      <c r="E783" s="493"/>
+      <c r="E783" s="494"/>
     </row>
     <row r="784" ht="12.75" customHeight="1">
-      <c r="E784" s="493"/>
+      <c r="E784" s="494"/>
     </row>
     <row r="785" ht="12.75" customHeight="1">
-      <c r="E785" s="493"/>
+      <c r="E785" s="494"/>
     </row>
     <row r="786" ht="12.75" customHeight="1">
-      <c r="E786" s="493"/>
+      <c r="E786" s="494"/>
     </row>
     <row r="787" ht="12.75" customHeight="1">
-      <c r="E787" s="493"/>
+      <c r="E787" s="494"/>
     </row>
     <row r="788" ht="12.75" customHeight="1">
-      <c r="E788" s="493"/>
+      <c r="E788" s="494"/>
     </row>
     <row r="789" ht="12.75" customHeight="1">
-      <c r="E789" s="493"/>
+      <c r="E789" s="494"/>
     </row>
     <row r="790" ht="12.75" customHeight="1">
-      <c r="E790" s="493"/>
+      <c r="E790" s="494"/>
     </row>
     <row r="791" ht="12.75" customHeight="1">
-      <c r="E791" s="493"/>
+      <c r="E791" s="494"/>
     </row>
     <row r="792" ht="12.75" customHeight="1">
-      <c r="E792" s="493"/>
+      <c r="E792" s="494"/>
     </row>
     <row r="793" ht="12.75" customHeight="1">
-      <c r="E793" s="493"/>
+      <c r="E793" s="494"/>
     </row>
     <row r="794" ht="12.75" customHeight="1">
-      <c r="E794" s="493"/>
+      <c r="E794" s="494"/>
     </row>
     <row r="795" ht="12.75" customHeight="1">
-      <c r="E795" s="493"/>
+      <c r="E795" s="494"/>
     </row>
     <row r="796" ht="12.75" customHeight="1">
-      <c r="E796" s="493"/>
+      <c r="E796" s="494"/>
     </row>
     <row r="797" ht="12.75" customHeight="1">
-      <c r="E797" s="493"/>
+      <c r="E797" s="494"/>
     </row>
     <row r="798" ht="12.75" customHeight="1">
-      <c r="E798" s="493"/>
+      <c r="E798" s="494"/>
     </row>
     <row r="799" ht="12.75" customHeight="1">
-      <c r="E799" s="493"/>
+      <c r="E799" s="494"/>
     </row>
     <row r="800" ht="12.75" customHeight="1">
-      <c r="E800" s="493"/>
+      <c r="E800" s="494"/>
     </row>
     <row r="801" ht="12.75" customHeight="1">
-      <c r="E801" s="493"/>
+      <c r="E801" s="494"/>
     </row>
     <row r="802" ht="12.75" customHeight="1">
-      <c r="E802" s="493"/>
+      <c r="E802" s="494"/>
     </row>
     <row r="803" ht="12.75" customHeight="1">
-      <c r="E803" s="493"/>
+      <c r="E803" s="494"/>
     </row>
     <row r="804" ht="12.75" customHeight="1">
-      <c r="E804" s="493"/>
+      <c r="E804" s="494"/>
     </row>
     <row r="805" ht="12.75" customHeight="1">
-      <c r="E805" s="493"/>
+      <c r="E805" s="494"/>
     </row>
     <row r="806" ht="12.75" customHeight="1">
-      <c r="E806" s="493"/>
+      <c r="E806" s="494"/>
     </row>
     <row r="807" ht="12.75" customHeight="1">
-      <c r="E807" s="493"/>
+      <c r="E807" s="494"/>
     </row>
     <row r="808" ht="12.75" customHeight="1">
-      <c r="E808" s="493"/>
+      <c r="E808" s="494"/>
     </row>
     <row r="809" ht="12.75" customHeight="1">
-      <c r="E809" s="493"/>
+      <c r="E809" s="494"/>
     </row>
     <row r="810" ht="12.75" customHeight="1">
-      <c r="E810" s="493"/>
+      <c r="E810" s="494"/>
     </row>
     <row r="811" ht="12.75" customHeight="1">
-      <c r="E811" s="493"/>
+      <c r="E811" s="494"/>
     </row>
     <row r="812" ht="12.75" customHeight="1">
-      <c r="E812" s="493"/>
+      <c r="E812" s="494"/>
     </row>
     <row r="813" ht="12.75" customHeight="1">
-      <c r="E813" s="493"/>
+      <c r="E813" s="494"/>
     </row>
     <row r="814" ht="12.75" customHeight="1">
-      <c r="E814" s="493"/>
+      <c r="E814" s="494"/>
     </row>
     <row r="815" ht="12.75" customHeight="1">
-      <c r="E815" s="493"/>
+      <c r="E815" s="494"/>
     </row>
     <row r="816" ht="12.75" customHeight="1">
-      <c r="E816" s="493"/>
+      <c r="E816" s="494"/>
     </row>
     <row r="817" ht="12.75" customHeight="1">
-      <c r="E817" s="493"/>
+      <c r="E817" s="494"/>
     </row>
     <row r="818" ht="12.75" customHeight="1">
-      <c r="E818" s="493"/>
+      <c r="E818" s="494"/>
     </row>
     <row r="819" ht="12.75" customHeight="1">
-      <c r="E819" s="493"/>
+      <c r="E819" s="494"/>
     </row>
     <row r="820" ht="12.75" customHeight="1">
-      <c r="E820" s="493"/>
+      <c r="E820" s="494"/>
     </row>
     <row r="821" ht="12.75" customHeight="1">
-      <c r="E821" s="493"/>
+      <c r="E821" s="494"/>
     </row>
     <row r="822" ht="12.75" customHeight="1">
-      <c r="E822" s="493"/>
+      <c r="E822" s="494"/>
     </row>
     <row r="823" ht="12.75" customHeight="1">
-      <c r="E823" s="493"/>
+      <c r="E823" s="494"/>
     </row>
     <row r="824" ht="12.75" customHeight="1">
-      <c r="E824" s="493"/>
+      <c r="E824" s="494"/>
     </row>
     <row r="825" ht="12.75" customHeight="1">
-      <c r="E825" s="493"/>
+      <c r="E825" s="494"/>
     </row>
     <row r="826" ht="12.75" customHeight="1">
-      <c r="E826" s="493"/>
+      <c r="E826" s="494"/>
     </row>
     <row r="827" ht="12.75" customHeight="1">
-      <c r="E827" s="493"/>
+      <c r="E827" s="494"/>
     </row>
     <row r="828" ht="12.75" customHeight="1">
-      <c r="E828" s="493"/>
+      <c r="E828" s="494"/>
     </row>
     <row r="829" ht="12.75" customHeight="1">
-      <c r="E829" s="493"/>
+      <c r="E829" s="494"/>
     </row>
     <row r="830" ht="12.75" customHeight="1">
-      <c r="E830" s="493"/>
+      <c r="E830" s="494"/>
     </row>
     <row r="831" ht="12.75" customHeight="1">
-      <c r="E831" s="493"/>
+      <c r="E831" s="494"/>
     </row>
     <row r="832" ht="12.75" customHeight="1">
-      <c r="E832" s="493"/>
+      <c r="E832" s="494"/>
     </row>
     <row r="833" ht="12.75" customHeight="1">
-      <c r="E833" s="493"/>
+      <c r="E833" s="494"/>
     </row>
     <row r="834" ht="12.75" customHeight="1">
-      <c r="E834" s="493"/>
+      <c r="E834" s="494"/>
     </row>
     <row r="835" ht="12.75" customHeight="1">
-      <c r="E835" s="493"/>
+      <c r="E835" s="494"/>
     </row>
     <row r="836" ht="12.75" customHeight="1">
-      <c r="E836" s="493"/>
+      <c r="E836" s="494"/>
     </row>
     <row r="837" ht="12.75" customHeight="1">
-      <c r="E837" s="493"/>
+      <c r="E837" s="494"/>
     </row>
     <row r="838" ht="12.75" customHeight="1">
-      <c r="E838" s="493"/>
+      <c r="E838" s="494"/>
     </row>
     <row r="839" ht="12.75" customHeight="1">
-      <c r="E839" s="493"/>
+      <c r="E839" s="494"/>
     </row>
     <row r="840" ht="12.75" customHeight="1">
-      <c r="E840" s="493"/>
+      <c r="E840" s="494"/>
     </row>
     <row r="841" ht="12.75" customHeight="1">
-      <c r="E841" s="493"/>
+      <c r="E841" s="494"/>
     </row>
     <row r="842" ht="12.75" customHeight="1">
-      <c r="E842" s="493"/>
+      <c r="E842" s="494"/>
     </row>
     <row r="843" ht="12.75" customHeight="1">
-      <c r="E843" s="493"/>
+      <c r="E843" s="494"/>
     </row>
     <row r="844" ht="12.75" customHeight="1">
-      <c r="E844" s="493"/>
+      <c r="E844" s="494"/>
     </row>
     <row r="845" ht="12.75" customHeight="1">
-      <c r="E845" s="493"/>
+      <c r="E845" s="494"/>
     </row>
     <row r="846" ht="12.75" customHeight="1">
-      <c r="E846" s="493"/>
+      <c r="E846" s="494"/>
     </row>
     <row r="847" ht="12.75" customHeight="1">
-      <c r="E847" s="493"/>
+      <c r="E847" s="494"/>
     </row>
     <row r="848" ht="12.75" customHeight="1">
-      <c r="E848" s="493"/>
+      <c r="E848" s="494"/>
     </row>
     <row r="849" ht="12.75" customHeight="1">
-      <c r="E849" s="493"/>
+      <c r="E849" s="494"/>
     </row>
     <row r="850" ht="12.75" customHeight="1">
-      <c r="E850" s="493"/>
+      <c r="E850" s="494"/>
     </row>
     <row r="851" ht="12.75" customHeight="1">
-      <c r="E851" s="493"/>
+      <c r="E851" s="494"/>
     </row>
     <row r="852" ht="12.75" customHeight="1">
-      <c r="E852" s="493"/>
+      <c r="E852" s="494"/>
     </row>
     <row r="853" ht="12.75" customHeight="1">
-      <c r="E853" s="493"/>
+      <c r="E853" s="494"/>
     </row>
     <row r="854" ht="12.75" customHeight="1">
-      <c r="E854" s="493"/>
+      <c r="E854" s="494"/>
     </row>
     <row r="855" ht="12.75" customHeight="1">
-      <c r="E855" s="493"/>
+      <c r="E855" s="494"/>
     </row>
     <row r="856" ht="12.75" customHeight="1">
-      <c r="E856" s="493"/>
+      <c r="E856" s="494"/>
     </row>
     <row r="857" ht="12.75" customHeight="1">
-      <c r="E857" s="493"/>
+      <c r="E857" s="494"/>
     </row>
     <row r="858" ht="12.75" customHeight="1">
-      <c r="E858" s="493"/>
+      <c r="E858" s="494"/>
     </row>
     <row r="859" ht="12.75" customHeight="1">
-      <c r="E859" s="493"/>
+      <c r="E859" s="494"/>
     </row>
     <row r="860" ht="12.75" customHeight="1">
-      <c r="E860" s="493"/>
+      <c r="E860" s="494"/>
     </row>
     <row r="861" ht="12.75" customHeight="1">
-      <c r="E861" s="493"/>
+      <c r="E861" s="494"/>
     </row>
     <row r="862" ht="12.75" customHeight="1">
-      <c r="E862" s="493"/>
+      <c r="E862" s="494"/>
     </row>
     <row r="863" ht="12.75" customHeight="1">
-      <c r="E863" s="493"/>
+      <c r="E863" s="494"/>
     </row>
     <row r="864" ht="12.75" customHeight="1">
-      <c r="E864" s="493"/>
+      <c r="E864" s="494"/>
     </row>
     <row r="865" ht="12.75" customHeight="1">
-      <c r="E865" s="493"/>
+      <c r="E865" s="494"/>
     </row>
     <row r="866" ht="12.75" customHeight="1">
-      <c r="E866" s="493"/>
+      <c r="E866" s="494"/>
     </row>
     <row r="867" ht="12.75" customHeight="1">
-      <c r="E867" s="493"/>
+      <c r="E867" s="494"/>
     </row>
     <row r="868" ht="12.75" customHeight="1">
-      <c r="E868" s="493"/>
+      <c r="E868" s="494"/>
     </row>
     <row r="869" ht="12.75" customHeight="1">
-      <c r="E869" s="493"/>
+      <c r="E869" s="494"/>
     </row>
     <row r="870" ht="12.75" customHeight="1">
-      <c r="E870" s="493"/>
+      <c r="E870" s="494"/>
     </row>
     <row r="871" ht="12.75" customHeight="1">
-      <c r="E871" s="493"/>
+      <c r="E871" s="494"/>
     </row>
     <row r="872" ht="12.75" customHeight="1">
-      <c r="E872" s="493"/>
+      <c r="E872" s="494"/>
     </row>
     <row r="873" ht="12.75" customHeight="1">
-      <c r="E873" s="493"/>
+      <c r="E873" s="494"/>
     </row>
     <row r="874" ht="12.75" customHeight="1">
-      <c r="E874" s="493"/>
+      <c r="E874" s="494"/>
     </row>
     <row r="875" ht="12.75" customHeight="1">
-      <c r="E875" s="493"/>
+      <c r="E875" s="494"/>
     </row>
     <row r="876" ht="12.75" customHeight="1">
-      <c r="E876" s="493"/>
+      <c r="E876" s="494"/>
     </row>
     <row r="877" ht="12.75" customHeight="1">
-      <c r="E877" s="493"/>
+      <c r="E877" s="494"/>
     </row>
     <row r="878" ht="12.75" customHeight="1">
-      <c r="E878" s="493"/>
+      <c r="E878" s="494"/>
     </row>
     <row r="879" ht="12.75" customHeight="1">
-      <c r="E879" s="493"/>
+      <c r="E879" s="494"/>
     </row>
     <row r="880" ht="12.75" customHeight="1">
-      <c r="E880" s="493"/>
+      <c r="E880" s="494"/>
     </row>
     <row r="881" ht="12.75" customHeight="1">
-      <c r="E881" s="493"/>
+      <c r="E881" s="494"/>
     </row>
     <row r="882" ht="12.75" customHeight="1">
-      <c r="E882" s="493"/>
+      <c r="E882" s="494"/>
     </row>
     <row r="883" ht="12.75" customHeight="1">
-      <c r="E883" s="493"/>
+      <c r="E883" s="494"/>
     </row>
     <row r="884" ht="12.75" customHeight="1">
-      <c r="E884" s="493"/>
+      <c r="E884" s="494"/>
     </row>
     <row r="885" ht="12.75" customHeight="1">
-      <c r="E885" s="493"/>
+      <c r="E885" s="494"/>
     </row>
     <row r="886" ht="12.75" customHeight="1">
-      <c r="E886" s="493"/>
+      <c r="E886" s="494"/>
     </row>
     <row r="887" ht="12.75" customHeight="1">
-      <c r="E887" s="493"/>
+      <c r="E887" s="494"/>
     </row>
     <row r="888" ht="12.75" customHeight="1">
-      <c r="E888" s="493"/>
+      <c r="E888" s="494"/>
     </row>
     <row r="889" ht="12.75" customHeight="1">
-      <c r="E889" s="493"/>
+      <c r="E889" s="494"/>
     </row>
     <row r="890" ht="12.75" customHeight="1">
-      <c r="E890" s="493"/>
+      <c r="E890" s="494"/>
     </row>
     <row r="891" ht="12.75" customHeight="1">
-      <c r="E891" s="493"/>
+      <c r="E891" s="494"/>
     </row>
     <row r="892" ht="12.75" customHeight="1">
-      <c r="E892" s="493"/>
+      <c r="E892" s="494"/>
     </row>
     <row r="893" ht="12.75" customHeight="1">
-      <c r="E893" s="493"/>
+      <c r="E893" s="494"/>
     </row>
     <row r="894" ht="12.75" customHeight="1">
-      <c r="E894" s="493"/>
+      <c r="E894" s="494"/>
     </row>
     <row r="895" ht="12.75" customHeight="1">
-      <c r="E895" s="493"/>
+      <c r="E895" s="494"/>
     </row>
     <row r="896" ht="12.75" customHeight="1">
-      <c r="E896" s="493"/>
+      <c r="E896" s="494"/>
     </row>
     <row r="897" ht="12.75" customHeight="1">
-      <c r="E897" s="493"/>
+      <c r="E897" s="494"/>
     </row>
     <row r="898" ht="12.75" customHeight="1">
-      <c r="E898" s="493"/>
+      <c r="E898" s="494"/>
     </row>
     <row r="899" ht="12.75" customHeight="1">
-      <c r="E899" s="493"/>
+      <c r="E899" s="494"/>
     </row>
     <row r="900" ht="12.75" customHeight="1">
-      <c r="E900" s="493"/>
+      <c r="E900" s="494"/>
     </row>
     <row r="901" ht="12.75" customHeight="1">
-      <c r="E901" s="493"/>
+      <c r="E901" s="494"/>
     </row>
     <row r="902" ht="12.75" customHeight="1">
-      <c r="E902" s="493"/>
+      <c r="E902" s="494"/>
     </row>
     <row r="903" ht="12.75" customHeight="1">
-      <c r="E903" s="493"/>
+      <c r="E903" s="494"/>
     </row>
     <row r="904" ht="12.75" customHeight="1">
-      <c r="E904" s="493"/>
+      <c r="E904" s="494"/>
     </row>
     <row r="905" ht="12.75" customHeight="1">
-      <c r="E905" s="493"/>
+      <c r="E905" s="494"/>
     </row>
     <row r="906" ht="12.75" customHeight="1">
-      <c r="E906" s="493"/>
+      <c r="E906" s="494"/>
     </row>
     <row r="907" ht="12.75" customHeight="1">
-      <c r="E907" s="493"/>
+      <c r="E907" s="494"/>
     </row>
     <row r="908" ht="12.75" customHeight="1">
-      <c r="E908" s="493"/>
+      <c r="E908" s="494"/>
     </row>
     <row r="909" ht="12.75" customHeight="1">
-      <c r="E909" s="493"/>
+      <c r="E909" s="494"/>
     </row>
     <row r="910" ht="12.75" customHeight="1">
-      <c r="E910" s="493"/>
+      <c r="E910" s="494"/>
     </row>
     <row r="911" ht="12.75" customHeight="1">
-      <c r="E911" s="493"/>
+      <c r="E911" s="494"/>
     </row>
     <row r="912" ht="12.75" customHeight="1">
-      <c r="E912" s="493"/>
+      <c r="E912" s="494"/>
     </row>
     <row r="913" ht="12.75" customHeight="1">
-      <c r="E913" s="493"/>
+      <c r="E913" s="494"/>
     </row>
     <row r="914" ht="12.75" customHeight="1">
-      <c r="E914" s="493"/>
+      <c r="E914" s="494"/>
     </row>
     <row r="915" ht="12.75" customHeight="1">
-      <c r="E915" s="493"/>
+      <c r="E915" s="494"/>
     </row>
     <row r="916" ht="12.75" customHeight="1">
-      <c r="E916" s="493"/>
+      <c r="E916" s="494"/>
     </row>
     <row r="917" ht="12.75" customHeight="1">
-      <c r="E917" s="493"/>
+      <c r="E917" s="494"/>
     </row>
     <row r="918" ht="12.75" customHeight="1">
-      <c r="E918" s="493"/>
+      <c r="E918" s="494"/>
     </row>
     <row r="919" ht="12.75" customHeight="1">
-      <c r="E919" s="493"/>
+      <c r="E919" s="494"/>
     </row>
     <row r="920" ht="12.75" customHeight="1">
-      <c r="E920" s="493"/>
+      <c r="E920" s="494"/>
     </row>
     <row r="921" ht="12.75" customHeight="1">
-      <c r="E921" s="493"/>
+      <c r="E921" s="494"/>
     </row>
     <row r="922" ht="12.75" customHeight="1">
-      <c r="E922" s="493"/>
+      <c r="E922" s="494"/>
     </row>
     <row r="923" ht="12.75" customHeight="1">
-      <c r="E923" s="493"/>
+      <c r="E923" s="494"/>
     </row>
     <row r="924" ht="12.75" customHeight="1">
-      <c r="E924" s="493"/>
+      <c r="E924" s="494"/>
     </row>
     <row r="925" ht="12.75" customHeight="1">
-      <c r="E925" s="493"/>
+      <c r="E925" s="494"/>
     </row>
     <row r="926" ht="12.75" customHeight="1">
-      <c r="E926" s="493"/>
+      <c r="E926" s="494"/>
     </row>
     <row r="927" ht="12.75" customHeight="1">
-      <c r="E927" s="493"/>
+      <c r="E927" s="494"/>
     </row>
     <row r="928" ht="12.75" customHeight="1">
-      <c r="E928" s="493"/>
+      <c r="E928" s="494"/>
     </row>
     <row r="929" ht="12.75" customHeight="1">
-      <c r="E929" s="493"/>
+      <c r="E929" s="494"/>
     </row>
     <row r="930" ht="12.75" customHeight="1">
-      <c r="E930" s="493"/>
+      <c r="E930" s="494"/>
     </row>
     <row r="931" ht="12.75" customHeight="1">
-      <c r="E931" s="493"/>
+      <c r="E931" s="494"/>
     </row>
     <row r="932" ht="12.75" customHeight="1">
-      <c r="E932" s="493"/>
+      <c r="E932" s="494"/>
     </row>
     <row r="933" ht="12.75" customHeight="1">
-      <c r="E933" s="493"/>
+      <c r="E933" s="494"/>
     </row>
     <row r="934" ht="12.75" customHeight="1">
-      <c r="E934" s="493"/>
+      <c r="E934" s="494"/>
     </row>
     <row r="935" ht="12.75" customHeight="1">
-      <c r="E935" s="493"/>
+      <c r="E935" s="494"/>
     </row>
     <row r="936" ht="12.75" customHeight="1">
-      <c r="E936" s="493"/>
+      <c r="E936" s="494"/>
     </row>
     <row r="937" ht="12.75" customHeight="1">
-      <c r="E937" s="493"/>
+      <c r="E937" s="494"/>
     </row>
     <row r="938" ht="12.75" customHeight="1">
-      <c r="E938" s="493"/>
+      <c r="E938" s="494"/>
     </row>
     <row r="939" ht="12.75" customHeight="1">
-      <c r="E939" s="493"/>
+      <c r="E939" s="494"/>
     </row>
     <row r="940" ht="12.75" customHeight="1">
-      <c r="E940" s="493"/>
+      <c r="E940" s="494"/>
     </row>
     <row r="941" ht="12.75" customHeight="1">
-      <c r="E941" s="493"/>
+      <c r="E941" s="494"/>
     </row>
     <row r="942" ht="12.75" customHeight="1">
-      <c r="E942" s="493"/>
+      <c r="E942" s="494"/>
     </row>
     <row r="943" ht="12.75" customHeight="1">
-      <c r="E943" s="493"/>
+      <c r="E943" s="494"/>
     </row>
     <row r="944" ht="12.75" customHeight="1">
-      <c r="E944" s="493"/>
+      <c r="E944" s="494"/>
     </row>
     <row r="945" ht="12.75" customHeight="1">
-      <c r="E945" s="493"/>
+      <c r="E945" s="494"/>
     </row>
     <row r="946" ht="12.75" customHeight="1">
-      <c r="E946" s="493"/>
+      <c r="E946" s="494"/>
     </row>
     <row r="947" ht="12.75" customHeight="1">
-      <c r="E947" s="493"/>
+      <c r="E947" s="494"/>
     </row>
     <row r="948" ht="12.75" customHeight="1">
-      <c r="E948" s="493"/>
+      <c r="E948" s="494"/>
     </row>
     <row r="949" ht="12.75" customHeight="1">
-      <c r="E949" s="493"/>
+      <c r="E949" s="494"/>
     </row>
     <row r="950" ht="12.75" customHeight="1">
-      <c r="E950" s="493"/>
+      <c r="E950" s="494"/>
     </row>
     <row r="951" ht="12.75" customHeight="1">
-      <c r="E951" s="493"/>
+      <c r="E951" s="494"/>
     </row>
     <row r="952" ht="12.75" customHeight="1">
-      <c r="E952" s="493"/>
+      <c r="E952" s="494"/>
     </row>
     <row r="953" ht="12.75" customHeight="1">
-      <c r="E953" s="493"/>
+      <c r="E953" s="494"/>
     </row>
     <row r="954" ht="12.75" customHeight="1">
-      <c r="E954" s="493"/>
+      <c r="E954" s="494"/>
     </row>
     <row r="955" ht="12.75" customHeight="1">
-      <c r="E955" s="493"/>
+      <c r="E955" s="494"/>
     </row>
     <row r="956" ht="12.75" customHeight="1">
-      <c r="E956" s="493"/>
+      <c r="E956" s="494"/>
     </row>
     <row r="957" ht="12.75" customHeight="1">
-      <c r="E957" s="493"/>
+      <c r="E957" s="494"/>
     </row>
     <row r="958" ht="12.75" customHeight="1">
-      <c r="E958" s="493"/>
+      <c r="E958" s="494"/>
     </row>
     <row r="959" ht="12.75" customHeight="1">
-      <c r="E959" s="493"/>
+      <c r="E959" s="494"/>
     </row>
     <row r="960" ht="12.75" customHeight="1">
-      <c r="E960" s="493"/>
+      <c r="E960" s="494"/>
     </row>
     <row r="961" ht="12.75" customHeight="1">
-      <c r="E961" s="493"/>
+      <c r="E961" s="494"/>
     </row>
     <row r="962" ht="12.75" customHeight="1">
-      <c r="E962" s="493"/>
+      <c r="E962" s="494"/>
     </row>
     <row r="963" ht="12.75" customHeight="1">
-      <c r="E963" s="493"/>
+      <c r="E963" s="494"/>
     </row>
     <row r="964" ht="12.75" customHeight="1">
-      <c r="E964" s="493"/>
+      <c r="E964" s="494"/>
     </row>
     <row r="965" ht="12.75" customHeight="1">
-      <c r="E965" s="493"/>
+      <c r="E965" s="494"/>
     </row>
     <row r="966" ht="12.75" customHeight="1">
-      <c r="E966" s="493"/>
+      <c r="E966" s="494"/>
     </row>
     <row r="967" ht="12.75" customHeight="1">
-      <c r="E967" s="493"/>
+      <c r="E967" s="494"/>
     </row>
     <row r="968" ht="12.75" customHeight="1">
-      <c r="E968" s="493"/>
+      <c r="E968" s="494"/>
     </row>
     <row r="969" ht="12.75" customHeight="1">
-      <c r="E969" s="493"/>
+      <c r="E969" s="494"/>
     </row>
     <row r="970" ht="12.75" customHeight="1">
-      <c r="E970" s="493"/>
+      <c r="E970" s="494"/>
     </row>
     <row r="971" ht="12.75" customHeight="1">
-      <c r="E971" s="493"/>
+      <c r="E971" s="494"/>
     </row>
     <row r="972" ht="12.75" customHeight="1">
-      <c r="E972" s="493"/>
+      <c r="E972" s="494"/>
     </row>
     <row r="973" ht="12.75" customHeight="1">
-      <c r="E973" s="493"/>
+      <c r="E973" s="494"/>
     </row>
     <row r="974" ht="12.75" customHeight="1">
-      <c r="E974" s="493"/>
+      <c r="E974" s="494"/>
     </row>
     <row r="975" ht="12.75" customHeight="1">
-      <c r="E975" s="493"/>
+      <c r="E975" s="494"/>
     </row>
     <row r="976" ht="12.75" customHeight="1">
-      <c r="E976" s="493"/>
+      <c r="E976" s="494"/>
     </row>
     <row r="977" ht="12.75" customHeight="1">
-      <c r="E977" s="493"/>
+      <c r="E977" s="494"/>
     </row>
     <row r="978" ht="12.75" customHeight="1">
-      <c r="E978" s="493"/>
+      <c r="E978" s="494"/>
     </row>
     <row r="979" ht="12.75" customHeight="1">
-      <c r="E979" s="493"/>
+      <c r="E979" s="494"/>
     </row>
     <row r="980" ht="12.75" customHeight="1">
-      <c r="E980" s="493"/>
+      <c r="E980" s="494"/>
     </row>
     <row r="981" ht="12.75" customHeight="1">
-      <c r="E981" s="493"/>
+      <c r="E981" s="494"/>
     </row>
     <row r="982" ht="12.75" customHeight="1">
-      <c r="E982" s="493"/>
+      <c r="E982" s="494"/>
     </row>
     <row r="983" ht="12.75" customHeight="1">
-      <c r="E983" s="493"/>
+      <c r="E983" s="494"/>
     </row>
     <row r="984" ht="12.75" customHeight="1">
-      <c r="E984" s="493"/>
+      <c r="E984" s="494"/>
     </row>
     <row r="985" ht="12.75" customHeight="1">
-      <c r="E985" s="493"/>
+      <c r="E985" s="494"/>
     </row>
     <row r="986" ht="12.75" customHeight="1">
-      <c r="E986" s="493"/>
+      <c r="E986" s="494"/>
     </row>
     <row r="987" ht="12.75" customHeight="1">
-      <c r="E987" s="493"/>
+      <c r="E987" s="494"/>
     </row>
     <row r="988" ht="12.75" customHeight="1">
-      <c r="E988" s="493"/>
+      <c r="E988" s="494"/>
     </row>
     <row r="989" ht="12.75" customHeight="1">
-      <c r="E989" s="493"/>
+      <c r="E989" s="494"/>
     </row>
     <row r="990" ht="12.75" customHeight="1">
-      <c r="E990" s="493"/>
+      <c r="E990" s="494"/>
     </row>
     <row r="991" ht="12.75" customHeight="1">
-      <c r="E991" s="493"/>
+      <c r="E991" s="494"/>
     </row>
     <row r="992" ht="12.75" customHeight="1">
-      <c r="E992" s="493"/>
+      <c r="E992" s="494"/>
     </row>
     <row r="993" ht="12.75" customHeight="1">
-      <c r="E993" s="493"/>
+      <c r="E993" s="494"/>
     </row>
     <row r="994" ht="12.75" customHeight="1">
-      <c r="E994" s="493"/>
+      <c r="E994" s="494"/>
     </row>
     <row r="995" ht="12.75" customHeight="1">
-      <c r="E995" s="493"/>
+      <c r="E995" s="494"/>
     </row>
     <row r="996" ht="12.75" customHeight="1">
-      <c r="E996" s="493"/>
+      <c r="E996" s="494"/>
     </row>
     <row r="997" ht="12.75" customHeight="1">
-      <c r="E997" s="493"/>
+      <c r="E997" s="494"/>
     </row>
     <row r="998" ht="12.75" customHeight="1">
-      <c r="E998" s="493"/>
+      <c r="E998" s="494"/>
     </row>
     <row r="999" ht="12.75" customHeight="1">
-      <c r="E999" s="493"/>
+      <c r="E999" s="494"/>
     </row>
     <row r="1000" ht="12.75" customHeight="1">
-      <c r="E1000" s="493"/>
+      <c r="E1000" s="494"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46157,603 +46157,603 @@
     <row r="1" ht="12.75" customHeight="1"/>
     <row r="2" ht="12.75" customHeight="1"/>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="B3" s="505" t="s">
+      <c r="B3" s="506" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="488"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="B4" s="489"/>
+      <c r="C4" s="116"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="B5" s="489"/>
+      <c r="C5" s="116"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="B6" s="456"/>
+      <c r="C6" s="239"/>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="B7" s="507" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="488"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="B8" s="489"/>
+      <c r="C8" s="116"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="B9" s="508" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="487"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="B4" s="488"/>
-      <c r="C4" s="116"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="B5" s="488"/>
-      <c r="C5" s="116"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="455"/>
-      <c r="C6" s="239"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="B7" s="506" t="s">
+      <c r="C9" s="455"/>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="B10" s="489"/>
+      <c r="C10" s="116"/>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="B11" s="509" t="s">
         <v>439</v>
       </c>
-      <c r="C7" s="487"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="488"/>
-      <c r="C8" s="116"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="B9" s="507" t="s">
+      <c r="C11" s="510"/>
+    </row>
+    <row r="12" ht="95.25" customHeight="1">
+      <c r="B12" s="511" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="454"/>
-    </row>
-    <row r="10" ht="21.0" customHeight="1">
-      <c r="B10" s="488"/>
-      <c r="C10" s="116"/>
-    </row>
-    <row r="11" ht="21.0" customHeight="1">
-      <c r="B11" s="508" t="s">
+      <c r="C12" s="512"/>
+    </row>
+    <row r="13" ht="27.0" customHeight="1">
+      <c r="B13" s="513" t="s">
         <v>441</v>
       </c>
-      <c r="C11" s="509"/>
-    </row>
-    <row r="12" ht="95.25" customHeight="1">
-      <c r="B12" s="510" t="s">
+      <c r="C13" s="512"/>
+    </row>
+    <row r="14" ht="27.0" customHeight="1">
+      <c r="B14" s="513" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="511"/>
-    </row>
-    <row r="13" ht="27.0" customHeight="1">
-      <c r="B13" s="512" t="s">
+      <c r="C14" s="512"/>
+    </row>
+    <row r="15" ht="27.0" customHeight="1">
+      <c r="B15" s="513" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="511"/>
-    </row>
-    <row r="14" ht="27.0" customHeight="1">
-      <c r="B14" s="512" t="s">
+      <c r="C15" s="512"/>
+    </row>
+    <row r="16" ht="27.0" customHeight="1">
+      <c r="B16" s="513" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="511"/>
-    </row>
-    <row r="15" ht="27.0" customHeight="1">
-      <c r="B15" s="512" t="s">
+      <c r="C16" s="512"/>
+    </row>
+    <row r="17" ht="27.0" customHeight="1">
+      <c r="A17" s="514"/>
+      <c r="B17" s="515" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="511"/>
-    </row>
-    <row r="16" ht="27.0" customHeight="1">
-      <c r="B16" s="512" t="s">
+      <c r="C17" s="512"/>
+    </row>
+    <row r="18" ht="27.0" customHeight="1">
+      <c r="A18" s="514"/>
+      <c r="B18" s="516" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="511"/>
-    </row>
-    <row r="17" ht="27.0" customHeight="1">
-      <c r="A17" s="513"/>
-      <c r="B17" s="514" t="s">
+      <c r="C18" s="517"/>
+    </row>
+    <row r="19" ht="27.0" customHeight="1">
+      <c r="A19" s="514"/>
+      <c r="B19" s="518" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="511"/>
-    </row>
-    <row r="18" ht="27.0" customHeight="1">
-      <c r="A18" s="513"/>
-      <c r="B18" s="515" t="s">
+      <c r="C19" s="519"/>
+    </row>
+    <row r="20" ht="27.0" customHeight="1">
+      <c r="B20" s="520"/>
+      <c r="C20" s="521"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="C21" s="521"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="B22" s="522"/>
+      <c r="C22" s="522"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="B23" s="522"/>
+      <c r="C23" s="522"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="B24" s="522"/>
+      <c r="C24" s="522"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="B25" s="522"/>
+      <c r="C25" s="522"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="B26" s="523" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="488"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="B27" s="489"/>
+      <c r="C27" s="116"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="B28" s="489"/>
+      <c r="C28" s="116"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="B29" s="456"/>
+      <c r="C29" s="239"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="B30" s="507" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="516"/>
-    </row>
-    <row r="19" ht="27.0" customHeight="1">
-      <c r="A19" s="513"/>
-      <c r="B19" s="517" t="s">
+      <c r="C30" s="488"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" s="489"/>
+      <c r="C31" s="116"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" s="508" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="518"/>
-    </row>
-    <row r="20" ht="27.0" customHeight="1">
-      <c r="B20" s="519"/>
-      <c r="C20" s="520"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="C21" s="520"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="B22" s="521"/>
-      <c r="C22" s="521"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="B23" s="521"/>
-      <c r="C23" s="521"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="B24" s="521"/>
-      <c r="C24" s="521"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="B25" s="521"/>
-      <c r="C25" s="521"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="B26" s="522" t="s">
-        <v>438</v>
-      </c>
-      <c r="C26" s="487"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="B27" s="488"/>
-      <c r="C27" s="116"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="B28" s="488"/>
-      <c r="C28" s="116"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="B29" s="455"/>
-      <c r="C29" s="239"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="506" t="s">
+      <c r="C32" s="455"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" s="489"/>
+      <c r="C33" s="116"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="509" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="510"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" s="511" t="s">
         <v>450</v>
       </c>
-      <c r="C30" s="487"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="488"/>
-      <c r="C31" s="116"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="B32" s="507" t="s">
+      <c r="C35" s="512"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="513" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="454"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="B33" s="488"/>
-      <c r="C33" s="116"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="B34" s="508" t="s">
-        <v>441</v>
-      </c>
-      <c r="C34" s="509"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="B35" s="510" t="s">
+      <c r="C36" s="512"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="B37" s="513" t="s">
         <v>452</v>
       </c>
-      <c r="C35" s="511"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="B36" s="512" t="s">
+      <c r="C37" s="512"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="B38" s="513" t="s">
         <v>453</v>
       </c>
-      <c r="C36" s="511"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="512" t="s">
+      <c r="C38" s="512"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="B39" s="524" t="s">
         <v>454</v>
       </c>
-      <c r="C37" s="511"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="512" t="s">
+      <c r="C39" s="512"/>
+    </row>
+    <row r="40" ht="21.75" customHeight="1">
+      <c r="B40" s="525" t="s">
         <v>455</v>
       </c>
-      <c r="C38" s="511"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="523" t="s">
-        <v>456</v>
-      </c>
-      <c r="C39" s="511"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="524" t="s">
-        <v>457</v>
-      </c>
-      <c r="C40" s="518"/>
+      <c r="C40" s="519"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="519"/>
-      <c r="C41" s="520"/>
+      <c r="B41" s="520"/>
+      <c r="C41" s="521"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="D42" s="430"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="C43" s="525"/>
+      <c r="C43" s="526"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="D44" s="526"/>
+      <c r="D44" s="527"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="B45" s="522" t="s">
-        <v>438</v>
-      </c>
-      <c r="C45" s="487"/>
-      <c r="E45" s="527"/>
+      <c r="B45" s="523" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="488"/>
+      <c r="E45" s="528"/>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="B46" s="488"/>
+      <c r="B46" s="489"/>
       <c r="C46" s="116"/>
-      <c r="E46" s="527"/>
+      <c r="E46" s="528"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="B47" s="488"/>
+      <c r="B47" s="489"/>
       <c r="C47" s="116"/>
-      <c r="E47" s="527"/>
+      <c r="E47" s="528"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="B48" s="455"/>
+      <c r="B48" s="456"/>
       <c r="C48" s="239"/>
-      <c r="E48" s="527"/>
+      <c r="E48" s="528"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="B49" s="506" t="s">
+      <c r="B49" s="507" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="488"/>
+      <c r="E49" s="528"/>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="B50" s="489"/>
+      <c r="C50" s="116"/>
+      <c r="E50" s="528"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="B51" s="529" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" s="530"/>
+      <c r="E51" s="528"/>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="B52" s="531" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" s="510"/>
+      <c r="E52" s="528"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="B53" s="532" t="s">
         <v>458</v>
       </c>
-      <c r="C49" s="487"/>
-      <c r="E49" s="527"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="B50" s="488"/>
-      <c r="C50" s="116"/>
-      <c r="E50" s="527"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="B51" s="528" t="s">
+      <c r="C53" s="533"/>
+      <c r="E53" s="521"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="B54" s="532" t="s">
         <v>459</v>
       </c>
-      <c r="C51" s="529"/>
-      <c r="E51" s="527"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="B52" s="530" t="s">
-        <v>441</v>
-      </c>
-      <c r="C52" s="509"/>
-      <c r="E52" s="527"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="B53" s="531" t="s">
+      <c r="C54" s="533"/>
+      <c r="E54" s="521"/>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="B55" s="534" t="s">
         <v>460</v>
       </c>
-      <c r="C53" s="532"/>
-      <c r="E53" s="520"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="B54" s="531" t="s">
+      <c r="C55" s="533"/>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="B56" s="513" t="s">
         <v>461</v>
       </c>
-      <c r="C54" s="532"/>
-      <c r="E54" s="520"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="B55" s="533" t="s">
+      <c r="C56" s="533"/>
+    </row>
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="B57" s="513" t="s">
         <v>462</v>
       </c>
-      <c r="C55" s="532"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="B56" s="512" t="s">
-        <v>463</v>
-      </c>
-      <c r="C56" s="532"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="B57" s="512" t="s">
-        <v>464</v>
-      </c>
-      <c r="C57" s="532"/>
+      <c r="C57" s="533"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="B58" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C58" s="533"/>
+    </row>
+    <row r="59" ht="12.75" customHeight="1">
+      <c r="A59" s="521"/>
+      <c r="B59" s="535"/>
+      <c r="C59" s="533"/>
+      <c r="D59" s="521"/>
+      <c r="F59" s="521"/>
+      <c r="G59" s="521"/>
+      <c r="H59" s="521"/>
+      <c r="I59" s="521"/>
+      <c r="J59" s="521"/>
+      <c r="K59" s="521"/>
+      <c r="L59" s="521"/>
+      <c r="M59" s="521"/>
+      <c r="N59" s="521"/>
+      <c r="O59" s="521"/>
+      <c r="P59" s="521"/>
+      <c r="Q59" s="521"/>
+      <c r="R59" s="521"/>
+      <c r="S59" s="521"/>
+      <c r="T59" s="521"/>
+      <c r="U59" s="521"/>
+      <c r="V59" s="521"/>
+      <c r="W59" s="521"/>
+      <c r="X59" s="521"/>
+      <c r="Y59" s="521"/>
+      <c r="Z59" s="521"/>
+    </row>
+    <row r="60" ht="12.75" customHeight="1">
+      <c r="A60" s="521"/>
+      <c r="B60" s="525" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="536"/>
+      <c r="D60" s="521"/>
+      <c r="F60" s="521"/>
+      <c r="G60" s="521"/>
+      <c r="H60" s="521"/>
+      <c r="I60" s="521"/>
+      <c r="J60" s="521"/>
+      <c r="K60" s="521"/>
+      <c r="L60" s="521"/>
+      <c r="M60" s="521"/>
+      <c r="N60" s="521"/>
+      <c r="O60" s="521"/>
+      <c r="P60" s="521"/>
+      <c r="Q60" s="521"/>
+      <c r="R60" s="521"/>
+      <c r="S60" s="521"/>
+      <c r="T60" s="521"/>
+      <c r="U60" s="521"/>
+      <c r="V60" s="521"/>
+      <c r="W60" s="521"/>
+      <c r="X60" s="521"/>
+      <c r="Y60" s="521"/>
+      <c r="Z60" s="521"/>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="B61" s="520"/>
+      <c r="C61" s="521"/>
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="C62" s="521"/>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="B63" s="523" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63" s="488"/>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="B64" s="489"/>
+      <c r="C64" s="116"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="B65" s="489"/>
+      <c r="C65" s="116"/>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="B66" s="456"/>
+      <c r="C66" s="239"/>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="B67" s="507" t="s">
         <v>465</v>
       </c>
-      <c r="C58" s="532"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="520"/>
-      <c r="B59" s="534"/>
-      <c r="C59" s="532"/>
-      <c r="D59" s="520"/>
-      <c r="F59" s="520"/>
-      <c r="G59" s="520"/>
-      <c r="H59" s="520"/>
-      <c r="I59" s="520"/>
-      <c r="J59" s="520"/>
-      <c r="K59" s="520"/>
-      <c r="L59" s="520"/>
-      <c r="M59" s="520"/>
-      <c r="N59" s="520"/>
-      <c r="O59" s="520"/>
-      <c r="P59" s="520"/>
-      <c r="Q59" s="520"/>
-      <c r="R59" s="520"/>
-      <c r="S59" s="520"/>
-      <c r="T59" s="520"/>
-      <c r="U59" s="520"/>
-      <c r="V59" s="520"/>
-      <c r="W59" s="520"/>
-      <c r="X59" s="520"/>
-      <c r="Y59" s="520"/>
-      <c r="Z59" s="520"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="520"/>
-      <c r="B60" s="524" t="s">
-        <v>449</v>
-      </c>
-      <c r="C60" s="535"/>
-      <c r="D60" s="520"/>
-      <c r="F60" s="520"/>
-      <c r="G60" s="520"/>
-      <c r="H60" s="520"/>
-      <c r="I60" s="520"/>
-      <c r="J60" s="520"/>
-      <c r="K60" s="520"/>
-      <c r="L60" s="520"/>
-      <c r="M60" s="520"/>
-      <c r="N60" s="520"/>
-      <c r="O60" s="520"/>
-      <c r="P60" s="520"/>
-      <c r="Q60" s="520"/>
-      <c r="R60" s="520"/>
-      <c r="S60" s="520"/>
-      <c r="T60" s="520"/>
-      <c r="U60" s="520"/>
-      <c r="V60" s="520"/>
-      <c r="W60" s="520"/>
-      <c r="X60" s="520"/>
-      <c r="Y60" s="520"/>
-      <c r="Z60" s="520"/>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="B61" s="519"/>
-      <c r="C61" s="520"/>
-    </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="C62" s="520"/>
-    </row>
-    <row r="63" ht="13.5" customHeight="1">
-      <c r="B63" s="522" t="s">
-        <v>438</v>
-      </c>
-      <c r="C63" s="487"/>
-    </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="B64" s="488"/>
-      <c r="C64" s="116"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="B65" s="488"/>
-      <c r="C65" s="116"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="B66" s="455"/>
-      <c r="C66" s="239"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="B67" s="506" t="s">
+      <c r="C67" s="488"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
+      <c r="B68" s="489"/>
+      <c r="C68" s="116"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1">
+      <c r="B69" s="508" t="s">
         <v>466</v>
       </c>
-      <c r="C67" s="487"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="B68" s="488"/>
-      <c r="C68" s="116"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="B69" s="507" t="s">
+      <c r="C69" s="455"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1">
+      <c r="B70" s="489"/>
+      <c r="C70" s="116"/>
+    </row>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="B71" s="509" t="s">
+        <v>439</v>
+      </c>
+      <c r="C71" s="510"/>
+    </row>
+    <row r="72" ht="12.75" customHeight="1">
+      <c r="B72" s="511" t="s">
+        <v>450</v>
+      </c>
+      <c r="C72" s="512"/>
+      <c r="E72" s="521"/>
+    </row>
+    <row r="73" ht="12.75" customHeight="1">
+      <c r="B73" s="513" t="s">
         <v>467</v>
       </c>
-      <c r="C69" s="454"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="B70" s="488"/>
-      <c r="C70" s="116"/>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="B71" s="508" t="s">
-        <v>441</v>
-      </c>
-      <c r="C71" s="509"/>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="B72" s="510" t="s">
+      <c r="C73" s="512"/>
+      <c r="E73" s="521"/>
+    </row>
+    <row r="74" ht="12.75" customHeight="1">
+      <c r="B74" s="513" t="s">
         <v>452</v>
       </c>
-      <c r="C72" s="511"/>
-      <c r="E72" s="520"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="B73" s="512" t="s">
+      <c r="C74" s="512"/>
+    </row>
+    <row r="75" ht="12.75" customHeight="1">
+      <c r="B75" s="513" t="s">
         <v>468</v>
       </c>
-      <c r="C73" s="511"/>
-      <c r="E73" s="520"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="B74" s="512" t="s">
-        <v>454</v>
-      </c>
-      <c r="C74" s="511"/>
-    </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="B75" s="512" t="s">
+      <c r="C75" s="512"/>
+    </row>
+    <row r="76" ht="12.75" customHeight="1">
+      <c r="A76" s="521"/>
+      <c r="B76" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C75" s="511"/>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="520"/>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="512"/>
+      <c r="F76" s="521"/>
+      <c r="G76" s="521"/>
+      <c r="H76" s="521"/>
+      <c r="I76" s="521"/>
+      <c r="J76" s="521"/>
+      <c r="K76" s="521"/>
+      <c r="L76" s="521"/>
+      <c r="M76" s="521"/>
+      <c r="N76" s="521"/>
+      <c r="O76" s="521"/>
+      <c r="P76" s="521"/>
+      <c r="Q76" s="521"/>
+      <c r="R76" s="521"/>
+      <c r="S76" s="521"/>
+      <c r="T76" s="521"/>
+      <c r="U76" s="521"/>
+      <c r="V76" s="521"/>
+      <c r="W76" s="521"/>
+      <c r="X76" s="521"/>
+      <c r="Y76" s="521"/>
+      <c r="Z76" s="521"/>
+    </row>
+    <row r="77" ht="12.75" customHeight="1">
+      <c r="B77" s="525" t="s">
         <v>470</v>
       </c>
-      <c r="C76" s="511"/>
-      <c r="F76" s="520"/>
-      <c r="G76" s="520"/>
-      <c r="H76" s="520"/>
-      <c r="I76" s="520"/>
-      <c r="J76" s="520"/>
-      <c r="K76" s="520"/>
-      <c r="L76" s="520"/>
-      <c r="M76" s="520"/>
-      <c r="N76" s="520"/>
-      <c r="O76" s="520"/>
-      <c r="P76" s="520"/>
-      <c r="Q76" s="520"/>
-      <c r="R76" s="520"/>
-      <c r="S76" s="520"/>
-      <c r="T76" s="520"/>
-      <c r="U76" s="520"/>
-      <c r="V76" s="520"/>
-      <c r="W76" s="520"/>
-      <c r="X76" s="520"/>
-      <c r="Y76" s="520"/>
-      <c r="Z76" s="520"/>
-    </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="B77" s="524" t="s">
+      <c r="C77" s="519"/>
+    </row>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="C78" s="521"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1">
+      <c r="B79" s="523" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" s="488"/>
+    </row>
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="B80" s="489"/>
+      <c r="C80" s="116"/>
+    </row>
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="B81" s="489"/>
+      <c r="C81" s="116"/>
+    </row>
+    <row r="82" ht="12.75" customHeight="1">
+      <c r="B82" s="456"/>
+      <c r="C82" s="239"/>
+    </row>
+    <row r="83" ht="12.75" customHeight="1">
+      <c r="B83" s="507" t="s">
         <v>471</v>
       </c>
-      <c r="C77" s="518"/>
-    </row>
-    <row r="78" ht="13.5" customHeight="1">
-      <c r="C78" s="520"/>
-    </row>
-    <row r="79" ht="13.5" customHeight="1">
-      <c r="B79" s="522" t="s">
-        <v>438</v>
-      </c>
-      <c r="C79" s="487"/>
-    </row>
-    <row r="80" ht="13.5" customHeight="1">
-      <c r="B80" s="488"/>
-      <c r="C80" s="116"/>
-    </row>
-    <row r="81" ht="13.5" customHeight="1">
-      <c r="B81" s="488"/>
-      <c r="C81" s="116"/>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="B82" s="455"/>
-      <c r="C82" s="239"/>
-    </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="B83" s="506" t="s">
+      <c r="C83" s="488"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1">
+      <c r="B84" s="489"/>
+      <c r="C84" s="116"/>
+    </row>
+    <row r="85" ht="12.75" customHeight="1">
+      <c r="B85" s="508" t="s">
         <v>472</v>
       </c>
-      <c r="C83" s="487"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="B84" s="488"/>
-      <c r="C84" s="116"/>
-    </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="B85" s="507" t="s">
+      <c r="C85" s="455"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1">
+      <c r="B86" s="489"/>
+      <c r="C86" s="116"/>
+    </row>
+    <row r="87" ht="12.75" customHeight="1">
+      <c r="B87" s="509" t="s">
+        <v>439</v>
+      </c>
+      <c r="C87" s="510"/>
+    </row>
+    <row r="88" ht="12.75" customHeight="1">
+      <c r="B88" s="511" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="512"/>
+    </row>
+    <row r="89" ht="12.75" customHeight="1">
+      <c r="B89" s="513" t="s">
         <v>473</v>
       </c>
-      <c r="C85" s="454"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="B86" s="488"/>
-      <c r="C86" s="116"/>
-    </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="B87" s="508" t="s">
-        <v>441</v>
-      </c>
-      <c r="C87" s="509"/>
-    </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="B88" s="510" t="s">
+      <c r="C89" s="512"/>
+    </row>
+    <row r="90" ht="12.75" customHeight="1">
+      <c r="B90" s="513" t="s">
         <v>452</v>
       </c>
-      <c r="C88" s="511"/>
-    </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="B89" s="512" t="s">
+      <c r="C90" s="512"/>
+    </row>
+    <row r="91" ht="12.75" customHeight="1">
+      <c r="B91" s="513" t="s">
         <v>474</v>
       </c>
-      <c r="C89" s="511"/>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="B90" s="512" t="s">
-        <v>454</v>
-      </c>
-      <c r="C90" s="511"/>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="B91" s="512" t="s">
+      <c r="C91" s="512"/>
+    </row>
+    <row r="92" ht="12.75" customHeight="1">
+      <c r="A92" s="537"/>
+      <c r="B92" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C91" s="511"/>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="536"/>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="512"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1">
+      <c r="A93" s="514"/>
+      <c r="B93" s="518" t="s">
         <v>476</v>
       </c>
-      <c r="C92" s="511"/>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="513"/>
-      <c r="B93" s="517" t="s">
-        <v>477</v>
-      </c>
-      <c r="C93" s="518"/>
-      <c r="F93" s="520"/>
-      <c r="G93" s="520"/>
-      <c r="H93" s="520"/>
-      <c r="I93" s="520"/>
-      <c r="J93" s="520"/>
-      <c r="K93" s="520"/>
-      <c r="L93" s="520"/>
-      <c r="M93" s="520"/>
-      <c r="N93" s="520"/>
-      <c r="O93" s="520"/>
-      <c r="P93" s="520"/>
-      <c r="Q93" s="520"/>
-      <c r="R93" s="520"/>
-      <c r="S93" s="520"/>
-      <c r="T93" s="520"/>
-      <c r="U93" s="520"/>
-      <c r="V93" s="520"/>
-      <c r="W93" s="520"/>
-      <c r="X93" s="520"/>
-      <c r="Y93" s="520"/>
-      <c r="Z93" s="520"/>
+      <c r="C93" s="519"/>
+      <c r="F93" s="521"/>
+      <c r="G93" s="521"/>
+      <c r="H93" s="521"/>
+      <c r="I93" s="521"/>
+      <c r="J93" s="521"/>
+      <c r="K93" s="521"/>
+      <c r="L93" s="521"/>
+      <c r="M93" s="521"/>
+      <c r="N93" s="521"/>
+      <c r="O93" s="521"/>
+      <c r="P93" s="521"/>
+      <c r="Q93" s="521"/>
+      <c r="R93" s="521"/>
+      <c r="S93" s="521"/>
+      <c r="T93" s="521"/>
+      <c r="U93" s="521"/>
+      <c r="V93" s="521"/>
+      <c r="W93" s="521"/>
+      <c r="X93" s="521"/>
+      <c r="Y93" s="521"/>
+      <c r="Z93" s="521"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="520"/>
-      <c r="F94" s="520"/>
-      <c r="G94" s="520"/>
-      <c r="H94" s="520"/>
-      <c r="I94" s="520"/>
-      <c r="J94" s="520"/>
-      <c r="K94" s="520"/>
-      <c r="L94" s="520"/>
-      <c r="M94" s="520"/>
-      <c r="N94" s="520"/>
-      <c r="O94" s="520"/>
-      <c r="P94" s="520"/>
-      <c r="Q94" s="520"/>
-      <c r="R94" s="520"/>
-      <c r="S94" s="520"/>
-      <c r="T94" s="520"/>
-      <c r="U94" s="520"/>
-      <c r="V94" s="520"/>
-      <c r="W94" s="520"/>
-      <c r="X94" s="520"/>
-      <c r="Y94" s="520"/>
-      <c r="Z94" s="520"/>
+      <c r="A94" s="521"/>
+      <c r="F94" s="521"/>
+      <c r="G94" s="521"/>
+      <c r="H94" s="521"/>
+      <c r="I94" s="521"/>
+      <c r="J94" s="521"/>
+      <c r="K94" s="521"/>
+      <c r="L94" s="521"/>
+      <c r="M94" s="521"/>
+      <c r="N94" s="521"/>
+      <c r="O94" s="521"/>
+      <c r="P94" s="521"/>
+      <c r="Q94" s="521"/>
+      <c r="R94" s="521"/>
+      <c r="S94" s="521"/>
+      <c r="T94" s="521"/>
+      <c r="U94" s="521"/>
+      <c r="V94" s="521"/>
+      <c r="W94" s="521"/>
+      <c r="X94" s="521"/>
+      <c r="Y94" s="521"/>
+      <c r="Z94" s="521"/>
     </row>
     <row r="95" ht="13.5" customHeight="1"/>
     <row r="96" ht="13.5" customHeight="1"/>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="D97" s="537"/>
+      <c r="D97" s="538"/>
     </row>
     <row r="98" ht="13.5" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
